--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E10499-475F-6347-A4A9-89A875A3BFAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA29FE-4A67-BB41-9CC1-B4AAB5073537}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10940" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="12240" windowWidth="51200" windowHeight="19760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$21</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$11</definedName>
+    <definedName name="json">'#system'!$K$2:$K$12</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$108</definedName>
+    <definedName name="web">'#system'!$U$2:$U$109</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="483">
   <si>
     <t>description</t>
   </si>
@@ -205,9 +205,6 @@
     <t>wait(waitMs)</t>
   </si>
   <si>
-    <t>your name</t>
-  </si>
-  <si>
     <t>clear(file,worksheet,range)</t>
   </si>
   <si>
@@ -1342,34 +1339,175 @@
     <t>assertEqual(num1,num2)</t>
   </si>
   <si>
-    <t>average(variableName,array)</t>
-  </si>
-  <si>
-    <t>ceiling(variableName)</t>
-  </si>
-  <si>
-    <t>decrement(variableName,amount)</t>
-  </si>
-  <si>
-    <t>floor(variableName)</t>
-  </si>
-  <si>
-    <t>increment(variableName,amount)</t>
-  </si>
-  <si>
-    <t>max(variableName,array)</t>
-  </si>
-  <si>
-    <t>min(variableName,array)</t>
-  </si>
-  <si>
-    <t>round(variableName,closestDigit)</t>
-  </si>
-  <si>
     <t>delete(url,body,output)</t>
   </si>
   <si>
-    <t>web automation workshop 01- Iintroduction
+    <t>Open Browser</t>
+  </si>
+  <si>
+    <t>open to ${aut : url}</t>
+  </si>
+  <si>
+    <t>The target browser is ${nexial.browser}</t>
+  </si>
+  <si>
+    <t>${aut : url}</t>
+  </si>
+  <si>
+    <t>${aut : title}</t>
+  </si>
+  <si>
+    <t>Basic Validation</t>
+  </si>
+  <si>
+    <t>check document title</t>
+  </si>
+  <si>
+    <t>${aut : copyRight}</t>
+  </si>
+  <si>
+    <t>check page copyright</t>
+  </si>
+  <si>
+    <t>${aut : keyword}</t>
+  </si>
+  <si>
+    <t>check page keywords</t>
+  </si>
+  <si>
+    <t>Basic Navigation</t>
+  </si>
+  <si>
+    <t>refresh current page</t>
+  </si>
+  <si>
+    <t>current url</t>
+  </si>
+  <si>
+    <t>${current url}</t>
+  </si>
+  <si>
+    <t>URL should still be the same</t>
+  </si>
+  <si>
+    <t>click on a link</t>
+  </si>
+  <si>
+    <t>newline</t>
+  </si>
+  <si>
+    <t>${newline : title}</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>check document title for new page</t>
+  </si>
+  <si>
+    <t>go back</t>
+  </si>
+  <si>
+    <t>check for page excerpt</t>
+  </si>
+  <si>
+    <t>${newline : excerpt}</t>
+  </si>
+  <si>
+    <t>Close Browser</t>
+  </si>
+  <si>
+    <t>that's all folks!</t>
+  </si>
+  <si>
+    <t>check for the same document title</t>
+  </si>
+  <si>
+    <t>check for the same URL</t>
+  </si>
+  <si>
+    <t>Open Smaller Browser Window</t>
+  </si>
+  <si>
+    <t>nexial.browser.windowSize</t>
+  </si>
+  <si>
+    <t>450x300</t>
+  </si>
+  <si>
+    <t>open browser in ${nexial.browser.windowSize}</t>
+  </si>
+  <si>
+    <t>maximize browser window</t>
+  </si>
+  <si>
+    <t>addOrReplace(json,jsonpath,input,var)</t>
+  </si>
+  <si>
+    <t>average(var,array)</t>
+  </si>
+  <si>
+    <t>ceiling(var)</t>
+  </si>
+  <si>
+    <t>decrement(var,amount)</t>
+  </si>
+  <si>
+    <t>floor(var)</t>
+  </si>
+  <si>
+    <t>increment(var,amount)</t>
+  </si>
+  <si>
+    <t>max(var,array)</t>
+  </si>
+  <si>
+    <t>min(var,array)</t>
+  </si>
+  <si>
+    <t>round(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>assertTextMatches(text,minMatch,scrollTo)</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>hop around the page with the same keyword</t>
+  </si>
+  <si>
+    <t>Navigating Around</t>
+  </si>
+  <si>
+    <t>Clean up</t>
+  </si>
+  <si>
+    <t>I'm not your mother, clean up after yourself!</t>
+  </si>
+  <si>
+    <t>automike</t>
+  </si>
+  <si>
+    <t>web automation workshop 01 - Introduction
 - how to open ${nexial.browser}
 - how to obtain/validate basic webpage information
 - how to perform basic navigation
@@ -1377,103 +1515,7 @@
 - how to capture screenshot</t>
   </si>
   <si>
-    <t>Open Browser</t>
-  </si>
-  <si>
-    <t>open to ${aut : url}</t>
-  </si>
-  <si>
-    <t>The target browser is ${nexial.browser}</t>
-  </si>
-  <si>
-    <t>${aut : url}</t>
-  </si>
-  <si>
-    <t>${aut : title}</t>
-  </si>
-  <si>
-    <t>Basic Validation</t>
-  </si>
-  <si>
-    <t>check document title</t>
-  </si>
-  <si>
-    <t>${aut : copyRight}</t>
-  </si>
-  <si>
-    <t>check page copyright</t>
-  </si>
-  <si>
-    <t>${aut : keyword}</t>
-  </si>
-  <si>
-    <t>check page keywords</t>
-  </si>
-  <si>
-    <t>Basic Navigation</t>
-  </si>
-  <si>
-    <t>refresh current page</t>
-  </si>
-  <si>
-    <t>current url</t>
-  </si>
-  <si>
-    <t>${current url}</t>
-  </si>
-  <si>
-    <t>URL should still be the same</t>
-  </si>
-  <si>
-    <t>click on a link</t>
-  </si>
-  <si>
-    <t>newline</t>
-  </si>
-  <si>
-    <t>${newline : title}</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>check document title for new page</t>
-  </si>
-  <si>
-    <t>go back</t>
-  </si>
-  <si>
-    <t>check for page excerpt</t>
-  </si>
-  <si>
-    <t>${newline : excerpt}</t>
-  </si>
-  <si>
-    <t>Close Browser</t>
-  </si>
-  <si>
-    <t>that's all folks!</t>
-  </si>
-  <si>
-    <t>check for the same document title</t>
-  </si>
-  <si>
-    <t>check for the same URL</t>
-  </si>
-  <si>
-    <t>Open Smaller Browser Window</t>
-  </si>
-  <si>
-    <t>nexial.browser.windowSize</t>
-  </si>
-  <si>
-    <t>450x300</t>
-  </si>
-  <si>
-    <t>open browser in ${nexial.browser.windowSize}</t>
-  </si>
-  <si>
-    <t>maximize browser window</t>
+    <t>nexial tutorial</t>
   </si>
 </sst>
 </file>
@@ -2074,7 +2116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z108"/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
@@ -2090,13 +2132,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -2108,141 +2150,141 @@
         <v>23</v>
       </c>
       <c r="H1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K1" t="s">
         <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" t="s">
         <v>51</v>
       </c>
-      <c r="N1" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>405</v>
+      </c>
+      <c r="R1" t="s">
+        <v>406</v>
+      </c>
+      <c r="S1" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" t="s">
+        <v>390</v>
+      </c>
+      <c r="U1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>406</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
         <v>407</v>
       </c>
-      <c r="S1" t="s">
-        <v>351</v>
-      </c>
-      <c r="T1" t="s">
-        <v>391</v>
-      </c>
-      <c r="U1" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" t="s">
-        <v>54</v>
-      </c>
-      <c r="W1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X1" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>408</v>
-      </c>
       <c r="Z1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
         <v>365</v>
       </c>
-      <c r="B2" t="s">
-        <v>366</v>
-      </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="I2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>459</v>
       </c>
       <c r="L2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="Q2" t="s">
+        <v>412</v>
+      </c>
+      <c r="R2" t="s">
         <v>413</v>
       </c>
-      <c r="R2" t="s">
-        <v>414</v>
-      </c>
       <c r="S2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="T2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="U2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="W2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y2" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="Z2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
@@ -2250,144 +2292,144 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="R3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="T3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="U3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="V3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="W3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="X3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Y3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Z3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
         <v>26</v>
       </c>
       <c r="N4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="R4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="S4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="T4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="X4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Y4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Z4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -2395,61 +2437,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
         <v>30</v>
       </c>
       <c r="N5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="R5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S5" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="V5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="W5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Y5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="Z5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -2457,55 +2499,55 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
       <c r="N6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="P6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="S6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="X6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Y6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Z6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -2513,102 +2555,102 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
       </c>
       <c r="N7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="S7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="U7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Y7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="Z7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Y8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="Z8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -2616,75 +2658,75 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="N9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="X9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Z9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="N10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="X10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -2692,942 +2734,950 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M11" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="N11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U11" t="s">
+        <v>251</v>
+      </c>
+      <c r="X11" t="s">
         <v>252</v>
       </c>
-      <c r="X11" t="s">
-        <v>253</v>
-      </c>
       <c r="Z11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I12" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
       </c>
       <c r="M12" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="N12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="U12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M13" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="N13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="U13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M14" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="N14" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="U14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M15" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="N15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="U15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E16" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N16" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s">
         <v>43</v>
       </c>
       <c r="U17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="U18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I20" t="s">
         <v>44</v>
       </c>
       <c r="U20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I21" t="s">
         <v>45</v>
       </c>
       <c r="U21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="U23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="U26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="U27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="U28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="U29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="U30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="U32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="U33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="U34" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="U35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="U36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U37" t="s">
-        <v>387</v>
+        <v>468</v>
       </c>
     </row>
     <row r="38" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="U38" t="s">
-        <v>115</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="U41" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="U44" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E45" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="U45" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="U46" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U47" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="3:21" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="U48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="U49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U50" t="s">
-        <v>340</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U51" t="s">
-        <v>125</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="U52" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="55" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E59" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>383</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>132</v>
+        <v>382</v>
       </c>
     </row>
     <row r="61" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>191</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E65" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E67" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E69" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="U69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E70" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="71" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E71" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
     </row>
     <row r="80" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E82" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E83" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E84" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E85" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>377</v>
+        <v>142</v>
       </c>
     </row>
     <row r="87" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="88" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E88" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="90" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E90" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="91" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E91" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="5:21" x14ac:dyDescent="0.2">
       <c r="E92" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="93" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="95" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96" spans="5:21" x14ac:dyDescent="0.2">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U104" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U105" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U106" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U107" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108" spans="21:21" x14ac:dyDescent="0.2">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="109" spans="21:21" x14ac:dyDescent="0.2">
+      <c r="U109" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3641,16 +3691,16 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="51.6640625" style="9" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="58.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="35.6640625" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.1640625" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" style="10" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="15.5" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>
@@ -3676,10 +3726,10 @@
         <v>20</v>
       </c>
       <c r="G1" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H1" s="24" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I1" s="24" t="s">
         <v>19</v>
@@ -3693,19 +3743,21 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="98" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>435</v>
+        <v>481</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="25"/>
+      <c r="E2" s="25" t="s">
+        <v>482</v>
+      </c>
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="26" t="s">
-        <v>47</v>
+        <v>480</v>
       </c>
       <c r="J2" s="19"/>
       <c r="K2" s="3"/>
@@ -3733,13 +3785,13 @@
     </row>
     <row r="4" spans="1:15" s="6" customFormat="1" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
@@ -3760,7 +3812,7 @@
         <v>12</v>
       </c>
       <c r="J4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="18" t="s">
@@ -3778,17 +3830,19 @@
     </row>
     <row r="5" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="5"/>
+        <v>426</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="C5" s="13" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3803,17 +3857,15 @@
     </row>
     <row r="6" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
-      <c r="B6" s="5" t="s">
-        <v>437</v>
-      </c>
+      <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3828,19 +3880,19 @@
     </row>
     <row r="7" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3856,16 +3908,16 @@
     <row r="8" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3881,16 +3933,16 @@
     <row r="9" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3905,16 +3957,16 @@
     </row>
     <row r="10" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
@@ -3932,13 +3984,13 @@
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3954,19 +4006,19 @@
     <row r="12" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -3981,16 +4033,16 @@
     <row r="13" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4006,16 +4058,16 @@
     <row r="14" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4024,7 +4076,7 @@
       <c r="J14" s="22"/>
       <c r="K14" s="3"/>
       <c r="L14" s="15" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="15"/>
@@ -4033,16 +4085,16 @@
     <row r="15" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4058,13 +4110,13 @@
     <row r="16" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -4081,16 +4133,16 @@
     <row r="17" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
@@ -4099,7 +4151,7 @@
       <c r="J17" s="22"/>
       <c r="K17" s="3"/>
       <c r="L17" s="15" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="15"/>
@@ -4107,14 +4159,15 @@
     </row>
     <row r="18" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
+      <c r="B18"/>
       <c r="C18" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
@@ -4130,19 +4183,19 @@
     <row r="19" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -4156,16 +4209,16 @@
     </row>
     <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -4181,20 +4234,20 @@
     </row>
     <row r="21" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
@@ -4209,16 +4262,16 @@
     <row r="22" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
@@ -4235,13 +4288,13 @@
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -4250,7 +4303,7 @@
       <c r="J23" s="22"/>
       <c r="K23" s="3"/>
       <c r="L23" s="15" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="15"/>
@@ -4259,13 +4312,13 @@
     <row r="24" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -4275,25 +4328,41 @@
       <c r="J24" s="22"/>
       <c r="K24" s="3"/>
       <c r="L24" s="15" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="A25" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="22"/>
       <c r="K25" s="3"/>
-      <c r="L25" s="15"/>
+      <c r="L25" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
@@ -4301,16 +4370,28 @@
     <row r="26" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="22"/>
       <c r="K26" s="3"/>
-      <c r="L26" s="15"/>
+      <c r="L26" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
@@ -4318,16 +4399,28 @@
     <row r="27" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="22"/>
       <c r="K27" s="3"/>
-      <c r="L27" s="15"/>
+      <c r="L27" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M27" s="12"/>
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
@@ -4335,16 +4428,28 @@
     <row r="28" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="22"/>
       <c r="K28" s="3"/>
-      <c r="L28" s="15"/>
+      <c r="L28" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M28" s="12"/>
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
@@ -4352,16 +4457,28 @@
     <row r="29" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="C29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="22"/>
       <c r="K29" s="3"/>
-      <c r="L29" s="15"/>
+      <c r="L29" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M29" s="12"/>
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
@@ -4369,25 +4486,45 @@
     <row r="30" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="C30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>470</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="22"/>
       <c r="K30" s="3"/>
-      <c r="L30" s="15"/>
+      <c r="L30" s="15" t="s">
+        <v>445</v>
+      </c>
       <c r="M30" s="12"/>
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="27"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="7"/>
+      <c r="A31" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>123</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0DA29FE-4A67-BB41-9CC1-B4AAB5073537}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1A6452-40A4-2941-992D-3A4D78FF63F0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12240" windowWidth="51200" windowHeight="19760" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="20560" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -3689,9 +3689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="125" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3699,8 +3699,8 @@
     <col min="1" max="1" width="30.6640625" style="28" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="58.83203125" style="9" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="43.1640625" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" style="10" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.33203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.83203125" style="10" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="22.33203125" style="10" customWidth="1" collapsed="1"/>
     <col min="7" max="9" width="15.5" style="10" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="18.33203125" style="23" customWidth="1" collapsed="1"/>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="488">
   <si>
     <t>description</t>
   </si>
@@ -1529,13 +1529,16 @@
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
   </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="101" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1988,8 +1991,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2620,8 +2811,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -3787,6 +4284,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3794,7 +4855,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="127">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4058,49 +5119,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="55" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="56" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="57" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="58" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="59" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="99" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="99" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="102" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="102" fontId="64" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="105" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="105" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="70" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="71" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="72" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="73" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="74" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="75" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="76" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="126" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="129" fontId="79" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="80" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="132" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="82" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="83" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4425,7 +5576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5637,7 +6788,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60">
@@ -5645,7 +6796,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61">
@@ -5653,7 +6804,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="62">
@@ -5661,7 +6812,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63">
@@ -5669,7 +6820,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>483</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64">
@@ -5677,7 +6828,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>133</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65">
@@ -5685,7 +6836,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66">
@@ -5693,7 +6844,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67">
@@ -5701,7 +6852,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="68">
@@ -5709,7 +6860,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69">
@@ -5717,7 +6868,7 @@
         <v>403</v>
       </c>
       <c r="U69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -5725,7 +6876,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="71">
@@ -5733,7 +6884,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="72">
@@ -5741,7 +6892,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73">
@@ -5749,7 +6900,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="74">
@@ -5757,7 +6908,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75">
@@ -5765,7 +6916,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="76">
@@ -5773,7 +6924,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77">
@@ -5781,7 +6932,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="78">
@@ -5789,7 +6940,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79">
@@ -5797,7 +6948,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
@@ -5805,7 +6956,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81">
@@ -5813,7 +6964,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="82">
@@ -5821,7 +6972,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="83">
@@ -5829,7 +6980,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="84">
@@ -5837,7 +6988,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="85">
@@ -5845,7 +6996,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="86">
@@ -5853,7 +7004,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -5861,7 +7012,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88">
@@ -5869,7 +7020,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89">
@@ -5877,7 +7028,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90">
@@ -5885,7 +7036,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="91">
@@ -5893,7 +7044,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92">
@@ -5901,101 +7052,106 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
+    <definedName name="web">'#system'!$U$2:$U$113</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3278" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="490">
   <si>
     <t>description</t>
   </si>
@@ -1532,13 +1532,19 @@
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="101" x14ac:knownFonts="1">
+  <fonts count="116" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2179,8 +2185,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="193">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3117,8 +3217,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="199">
     <border>
       <left/>
       <right/>
@@ -4848,6 +5101,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4855,7 +5390,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="142">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5209,49 +5744,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="141" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="141" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="144" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="144" fontId="88" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="147" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="147" fontId="89" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="90" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="91" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="153" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="153" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="156" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="156" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="159" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="159" fontId="96" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5576,7 +6156,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6676,7 +7256,7 @@
         <v>335</v>
       </c>
       <c r="U45" t="s">
-        <v>206</v>
+        <v>488</v>
       </c>
     </row>
     <row r="46">
@@ -6684,7 +7264,7 @@
         <v>204</v>
       </c>
       <c r="U46" t="s">
-        <v>75</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47">
@@ -6692,7 +7272,7 @@
         <v>313</v>
       </c>
       <c r="U47" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
@@ -6700,7 +7280,7 @@
         <v>332</v>
       </c>
       <c r="U48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
@@ -6708,7 +7288,7 @@
         <v>361</v>
       </c>
       <c r="U49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
@@ -6716,7 +7296,7 @@
         <v>295</v>
       </c>
       <c r="U50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -6724,7 +7304,7 @@
         <v>349</v>
       </c>
       <c r="U51" t="s">
-        <v>339</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -6732,7 +7312,7 @@
         <v>324</v>
       </c>
       <c r="U52" t="s">
-        <v>124</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53">
@@ -6740,7 +7320,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
@@ -6748,7 +7328,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -6756,7 +7336,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -6764,7 +7344,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -6772,7 +7352,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -6780,7 +7360,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59">
@@ -6788,7 +7368,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60">
@@ -6796,7 +7376,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61">
@@ -6804,7 +7384,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62">
@@ -6812,7 +7392,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>131</v>
+        <v>382</v>
       </c>
     </row>
     <row r="63">
@@ -6820,7 +7400,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64">
@@ -6828,7 +7408,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>483</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65">
@@ -7112,46 +7692,51 @@
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -19,16 +19,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,8 +42,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$113</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3727" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1538,13 +1538,31 @@
   <si>
     <t>uncheckAll(locator)</t>
   </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2279,8 +2297,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3370,8 +3670,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -5383,6 +6142,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5390,7 +6995,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="187">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5789,49 +7394,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6156,7 +7896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA113"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6482,6 +8222,9 @@
       <c r="C5" t="s">
         <v>217</v>
       </c>
+      <c r="D5" t="s">
+        <v>490</v>
+      </c>
       <c r="E5" t="s">
         <v>329</v>
       </c>
@@ -6575,7 +8318,7 @@
         <v>91</v>
       </c>
       <c r="V6" t="s">
-        <v>168</v>
+        <v>494</v>
       </c>
       <c r="W6" t="s">
         <v>173</v>
@@ -6630,6 +8373,9 @@
       <c r="U7" t="s">
         <v>92</v>
       </c>
+      <c r="V7" t="s">
+        <v>495</v>
+      </c>
       <c r="W7" t="s">
         <v>174</v>
       </c>
@@ -6680,6 +8426,9 @@
       <c r="U8" t="s">
         <v>93</v>
       </c>
+      <c r="V8" t="s">
+        <v>168</v>
+      </c>
       <c r="W8" t="s">
         <v>175</v>
       </c>
@@ -6748,7 +8497,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="M10" t="s">
         <v>462</v>
@@ -6783,7 +8532,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>463</v>
@@ -6815,7 +8564,7 @@
         <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>464</v>
@@ -6843,6 +8592,9 @@
       <c r="I13" t="s">
         <v>80</v>
       </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
       <c r="M13" t="s">
         <v>465</v>
       </c>
@@ -6993,7 +8745,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -7010,7 +8762,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -7026,6 +8778,9 @@
       <c r="E22" t="s">
         <v>292</v>
       </c>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
       <c r="U22" t="s">
         <v>102</v>
       </c>
@@ -7400,7 +9155,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>131</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64">
@@ -7408,7 +9163,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -7416,7 +9171,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -7424,7 +9179,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -7432,7 +9187,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -7440,7 +9195,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69">
@@ -7448,7 +9203,7 @@
         <v>403</v>
       </c>
       <c r="U69" t="s">
-        <v>135</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70">
@@ -7456,7 +9211,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
@@ -7464,7 +9219,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72">
@@ -7472,7 +9227,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="73">
@@ -7480,7 +9235,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
@@ -7488,7 +9243,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
@@ -7496,7 +9251,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
@@ -7504,7 +9259,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77">
@@ -7512,7 +9267,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78">
@@ -7520,7 +9275,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79">
@@ -7528,7 +9283,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
@@ -7536,7 +9291,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="81">
@@ -7544,7 +9299,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82">
@@ -7552,7 +9307,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83">
@@ -7560,7 +9315,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84">
@@ -7568,7 +9323,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85">
@@ -7576,7 +9331,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86">
@@ -7584,7 +9339,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87">
@@ -7592,7 +9347,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -7600,7 +9355,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -7608,7 +9363,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -7616,7 +9371,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="91">
@@ -7624,7 +9379,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="92">
@@ -7632,111 +9387,116 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5092" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1562,7 +1562,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2579,8 +2579,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4129,8 +4223,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6988,6 +7235,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6995,7 +7524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="202">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7529,49 +8058,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -23,12 +23,12 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5547" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1556,13 +1556,19 @@
   <si>
     <t>replyOK(text)</t>
   </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="206" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2673,8 +2679,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4376,8 +4570,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -7517,6 +8017,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7524,7 +8588,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="232">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8103,49 +9167,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8658,7 +9812,7 @@
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>496</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8732,7 +9886,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>497</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -8803,7 +9957,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -8865,7 +10019,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8921,13 +10075,13 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>308</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8977,13 +10131,13 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>460</v>
@@ -9029,11 +10183,14 @@
       <c r="E9" t="s">
         <v>299</v>
       </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
       <c r="I9" t="s">
         <v>383</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>461</v>
@@ -9067,11 +10224,14 @@
       <c r="E10" t="s">
         <v>345</v>
       </c>
+      <c r="F10" t="s">
+        <v>318</v>
+      </c>
       <c r="I10" t="s">
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>492</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>462</v>
@@ -9106,7 +10266,7 @@
         <v>41</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="M11" t="s">
         <v>463</v>
@@ -9138,7 +10298,7 @@
         <v>79</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>464</v>
@@ -9167,7 +10327,7 @@
         <v>80</v>
       </c>
       <c r="K13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>465</v>
@@ -9194,6 +10354,9 @@
       </c>
       <c r="I14" t="s">
         <v>81</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>466</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,12 +18,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6461" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="503">
   <si>
     <t>description</t>
   </si>
@@ -1562,13 +1562,28 @@
   <si>
     <t>json(file,worksheet,range,header,output)</t>
   </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="206" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2867,8 +2882,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4876,8 +4985,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -8581,6 +8843,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -8588,7 +9132,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="232">
+  <cellXfs count="247">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9257,49 +9801,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="191" fillId="330" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="193" fillId="333" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="194" fillId="336" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="195" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="196" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="197" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="198" fillId="342" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="199" fillId="345" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="201" fillId="348" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="202" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9732,7 +10321,7 @@
         <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>499</v>
       </c>
       <c r="G2" t="s">
         <v>77</v>
@@ -9812,7 +10401,7 @@
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>496</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -9886,7 +10475,7 @@
         <v>380</v>
       </c>
       <c r="F4" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="H4" t="s">
         <v>344</v>
@@ -9957,7 +10546,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>321</v>
+        <v>501</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -10019,7 +10608,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>322</v>
+        <v>497</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10075,7 +10664,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
@@ -10131,7 +10720,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10184,7 +10773,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>317</v>
+        <v>502</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -10225,7 +10814,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10262,6 +10851,9 @@
       <c r="E11" t="s">
         <v>267</v>
       </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
       <c r="I11" t="s">
         <v>41</v>
       </c>
@@ -10294,6 +10886,9 @@
       <c r="E12" t="s">
         <v>256</v>
       </c>
+      <c r="F12" t="s">
+        <v>317</v>
+      </c>
       <c r="I12" t="s">
         <v>79</v>
       </c>
@@ -10323,6 +10918,9 @@
       <c r="E13" t="s">
         <v>309</v>
       </c>
+      <c r="F13" t="s">
+        <v>318</v>
+      </c>
       <c r="I13" t="s">
         <v>80</v>
       </c>
@@ -10527,7 +11125,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>218</v>
+        <v>498</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -10541,7 +11139,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -10555,7 +11153,7 @@
         <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>409</v>
+        <v>219</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -10569,7 +11167,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -10580,7 +11178,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -10591,7 +11189,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -10602,7 +11200,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -10613,7 +11211,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -10624,7 +11222,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -10635,7 +11233,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -10646,7 +11244,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -10656,6 +11254,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
       <c r="E34" t="s">
         <v>323</v>
       </c>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6923" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="505">
   <si>
     <t>description</t>
   </si>
@@ -1577,13 +1577,19 @@
   <si>
     <t>setPassword(file,password)</t>
   </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2976,8 +2982,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5138,8 +5332,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9125,6 +9625,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9132,7 +10196,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="247">
+  <cellXfs count="277">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9846,49 +10910,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10213,7 +11367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11605,7 +12759,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="78">
@@ -11613,7 +12767,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -11621,7 +12775,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -11629,7 +12783,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81">
@@ -11637,7 +12791,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
@@ -11645,7 +12799,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83">
@@ -11653,7 +12807,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84">
@@ -11661,7 +12815,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85">
@@ -11669,7 +12823,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86">
@@ -11677,7 +12831,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
@@ -11685,7 +12839,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88">
@@ -11693,7 +12847,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -11701,7 +12855,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -11709,7 +12863,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -11717,7 +12871,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92">
@@ -11725,116 +12879,121 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7849" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="506">
   <si>
     <t>description</t>
   </si>
@@ -1583,13 +1583,16 @@
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3170,8 +3173,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="463">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5638,8 +5735,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="479">
     <border>
       <left/>
       <right/>
@@ -10189,6 +10439,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10196,7 +10728,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="292">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11000,49 +11532,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11367,7 +11944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12703,7 +13280,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>135</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71">
@@ -12711,7 +13288,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72">
@@ -12719,7 +13296,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73">
@@ -12727,7 +13304,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74">
@@ -12735,7 +13312,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75">
@@ -12743,7 +13320,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76">
@@ -12751,7 +13328,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77">
@@ -12759,7 +13336,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>504</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78">
@@ -12767,7 +13344,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="79">
@@ -12775,7 +13352,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -12783,7 +13360,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -12791,7 +13368,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82">
@@ -12799,7 +13376,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -12807,7 +13384,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84">
@@ -12815,7 +13392,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85">
@@ -12823,7 +13400,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86">
@@ -12831,7 +13408,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="87">
@@ -12839,7 +13416,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
@@ -12847,7 +13424,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="89">
@@ -12855,7 +13432,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -12863,7 +13440,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -12871,7 +13448,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -12879,121 +13456,126 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -23,7 +23,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8778" uniqueCount="507">
   <si>
     <t>description</t>
   </si>
@@ -1586,13 +1586,16 @@
   <si>
     <t>openHttpBasic(url,username,password)</t>
   </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="266" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3267,8 +3270,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="463">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5888,8 +5985,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="479">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10721,6 +10971,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10728,7 +11260,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="307">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11577,49 +12109,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="251" fillId="438" borderId="458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="441" borderId="462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="444" borderId="466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="450" borderId="470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="453" borderId="474" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="456" borderId="478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="462" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="459" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12277,7 +12854,7 @@
         <v>329</v>
       </c>
       <c r="F5" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H5" t="s">
         <v>341</v>
@@ -12339,7 +12916,7 @@
         <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -12395,7 +12972,7 @@
         <v>359</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>497</v>
       </c>
       <c r="I7" t="s">
         <v>78</v>
@@ -12451,7 +13028,7 @@
         <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -12504,7 +13081,7 @@
         <v>299</v>
       </c>
       <c r="F9" t="s">
-        <v>502</v>
+        <v>322</v>
       </c>
       <c r="I9" t="s">
         <v>383</v>
@@ -12545,7 +13122,7 @@
         <v>345</v>
       </c>
       <c r="F10" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -12583,7 +13160,7 @@
         <v>267</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I11" t="s">
         <v>41</v>
@@ -12618,7 +13195,7 @@
         <v>256</v>
       </c>
       <c r="F12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
@@ -12650,7 +13227,7 @@
         <v>309</v>
       </c>
       <c r="F13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I13" t="s">
         <v>80</v>
@@ -12680,6 +13257,9 @@
       </c>
       <c r="E14" t="s">
         <v>257</v>
+      </c>
+      <c r="F14" t="s">
+        <v>318</v>
       </c>
       <c r="I14" t="s">
         <v>81</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8778" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9710" uniqueCount="508">
   <si>
     <t>description</t>
   </si>
@@ -1589,13 +1589,16 @@
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
+  <si>
+    <t>rename(target,newName)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3364,8 +3367,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6138,8 +6329,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11253,6 +11750,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11260,7 +12321,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="307">
+  <cellXfs count="337">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12154,49 +13215,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13262,7 +14413,7 @@
         <v>318</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="K14" t="s">
         <v>42</v>
@@ -13291,7 +14442,7 @@
         <v>258</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M15" t="s">
         <v>467</v>
@@ -13317,7 +14468,7 @@
         <v>310</v>
       </c>
       <c r="I16" t="s">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
         <v>245</v>
@@ -13340,7 +14491,7 @@
         <v>87</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>373</v>
       </c>
       <c r="U17" t="s">
         <v>97</v>
@@ -13357,7 +14508,7 @@
         <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="U18" t="s">
         <v>98</v>
@@ -13374,7 +14525,7 @@
         <v>289</v>
       </c>
       <c r="I19" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="U19" t="s">
         <v>99</v>
@@ -13391,7 +14542,7 @@
         <v>290</v>
       </c>
       <c r="I20" t="s">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="U20" t="s">
         <v>100</v>
@@ -13408,7 +14559,7 @@
         <v>291</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="U21" t="s">
         <v>101</v>
@@ -13425,7 +14576,7 @@
         <v>292</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U22" t="s">
         <v>102</v>
@@ -13440,6 +14591,9 @@
       </c>
       <c r="E23" t="s">
         <v>283</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
       </c>
       <c r="U23" t="s">
         <v>103</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9710" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10646" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1592,13 +1592,19 @@
   <si>
     <t>rename(target,newName)</t>
   </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3555,8 +3561,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6635,8 +6829,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12314,6 +12814,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12321,7 +13385,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="367">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13305,49 +14369,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13851,7 +15005,7 @@
         <v>366</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="D3" t="s">
         <v>358</v>
@@ -13925,7 +15079,7 @@
         <v>367</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>71</v>
@@ -13996,7 +15150,7 @@
         <v>368</v>
       </c>
       <c r="C5" t="s">
-        <v>217</v>
+        <v>509</v>
       </c>
       <c r="D5" t="s">
         <v>490</v>
@@ -14061,7 +15215,7 @@
         <v>369</v>
       </c>
       <c r="C6" t="s">
-        <v>311</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>381</v>
@@ -14117,7 +15271,7 @@
         <v>370</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="E7" t="s">
         <v>359</v>
@@ -14173,7 +15327,7 @@
         <v>371</v>
       </c>
       <c r="C8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
         <v>360</v>
@@ -14226,7 +15380,7 @@
         <v>372</v>
       </c>
       <c r="C9" t="s">
-        <v>248</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>299</v>
@@ -14267,7 +15421,7 @@
         <v>326</v>
       </c>
       <c r="C10" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E10" t="s">
         <v>345</v>
@@ -14305,7 +15459,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="E11" t="s">
         <v>267</v>
@@ -14340,7 +15494,7 @@
         <v>189</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
         <v>256</v>
@@ -14372,7 +15526,7 @@
         <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>334</v>
       </c>
       <c r="E13" t="s">
         <v>309</v>
@@ -14404,7 +15558,7 @@
         <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>378</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>257</v>
@@ -14436,7 +15590,7 @@
         <v>51</v>
       </c>
       <c r="C15" t="s">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
         <v>258</v>
@@ -14462,7 +15616,7 @@
         <v>389</v>
       </c>
       <c r="C16" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="E16" t="s">
         <v>310</v>
@@ -14485,7 +15639,7 @@
         <v>405</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>379</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -14502,7 +15656,7 @@
         <v>406</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>408</v>
       </c>
       <c r="E18" t="s">
         <v>88</v>
@@ -14519,7 +15673,7 @@
         <v>350</v>
       </c>
       <c r="C19" t="s">
-        <v>249</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
         <v>289</v>
@@ -14536,7 +15690,7 @@
         <v>390</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>290</v>
@@ -14553,7 +15707,7 @@
         <v>52</v>
       </c>
       <c r="C21" t="s">
-        <v>314</v>
+        <v>249</v>
       </c>
       <c r="E21" t="s">
         <v>291</v>
@@ -14570,7 +15724,7 @@
         <v>53</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
         <v>292</v>
@@ -14587,7 +15741,7 @@
         <v>54</v>
       </c>
       <c r="C23" t="s">
-        <v>498</v>
+        <v>314</v>
       </c>
       <c r="E23" t="s">
         <v>283</v>
@@ -14604,7 +15758,7 @@
         <v>55</v>
       </c>
       <c r="C24" t="s">
-        <v>218</v>
+        <v>61</v>
       </c>
       <c r="E24" t="s">
         <v>272</v>
@@ -14618,7 +15772,7 @@
         <v>407</v>
       </c>
       <c r="C25" t="s">
-        <v>219</v>
+        <v>498</v>
       </c>
       <c r="E25" t="s">
         <v>74</v>
@@ -14632,7 +15786,7 @@
         <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="E26" t="s">
         <v>275</v>
@@ -14643,7 +15797,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>62</v>
+        <v>219</v>
       </c>
       <c r="E27" t="s">
         <v>259</v>
@@ -14654,7 +15808,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="E28" t="s">
         <v>276</v>
@@ -14665,7 +15819,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
         <v>277</v>
@@ -14676,7 +15830,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
         <v>209</v>
@@ -14687,7 +15841,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
         <v>268</v>
@@ -14698,7 +15852,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
         <v>278</v>
@@ -14709,7 +15863,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E33" t="s">
         <v>253</v>
@@ -14720,7 +15874,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" t="s">
         <v>323</v>
@@ -14730,6 +15884,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
       <c r="E35" t="s">
         <v>300</v>
       </c>
@@ -14738,6 +15895,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
       <c r="E36" t="s">
         <v>254</v>
       </c>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10646" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11115" uniqueCount="511">
   <si>
     <t>description</t>
   </si>
@@ -1598,13 +1598,16 @@
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
   </si>
+  <si>
+    <t>deselect(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3749,8 +3752,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7135,8 +7232,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13378,6 +13628,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13385,7 +13917,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14459,49 +14991,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14826,7 +15403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16038,7 +16615,7 @@
         <v>261</v>
       </c>
       <c r="U53" t="s">
-        <v>124</v>
+        <v>510</v>
       </c>
     </row>
     <row r="54">
@@ -16046,7 +16623,7 @@
         <v>285</v>
       </c>
       <c r="U54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -16054,7 +16631,7 @@
         <v>286</v>
       </c>
       <c r="U55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -16062,7 +16639,7 @@
         <v>287</v>
       </c>
       <c r="U56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -16070,7 +16647,7 @@
         <v>296</v>
       </c>
       <c r="U57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -16078,7 +16655,7 @@
         <v>305</v>
       </c>
       <c r="U58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59">
@@ -16086,7 +16663,7 @@
         <v>330</v>
       </c>
       <c r="U59" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60">
@@ -16094,7 +16671,7 @@
         <v>302</v>
       </c>
       <c r="U60" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61">
@@ -16102,7 +16679,7 @@
         <v>303</v>
       </c>
       <c r="U61" t="s">
-        <v>207</v>
+        <v>487</v>
       </c>
     </row>
     <row r="62">
@@ -16110,7 +16687,7 @@
         <v>362</v>
       </c>
       <c r="U62" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63">
@@ -16118,7 +16695,7 @@
         <v>363</v>
       </c>
       <c r="U63" t="s">
-        <v>493</v>
+        <v>382</v>
       </c>
     </row>
     <row r="64">
@@ -16126,7 +16703,7 @@
         <v>338</v>
       </c>
       <c r="U64" t="s">
-        <v>131</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65">
@@ -16134,7 +16711,7 @@
         <v>306</v>
       </c>
       <c r="U65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -16142,7 +16719,7 @@
         <v>262</v>
       </c>
       <c r="U66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -16150,7 +16727,7 @@
         <v>346</v>
       </c>
       <c r="U67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -16158,7 +16735,7 @@
         <v>307</v>
       </c>
       <c r="U68" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -16166,7 +16743,7 @@
         <v>403</v>
       </c>
       <c r="U69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="70">
@@ -16174,7 +16751,7 @@
         <v>297</v>
       </c>
       <c r="U70" t="s">
-        <v>505</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
@@ -16182,7 +16759,7 @@
         <v>404</v>
       </c>
       <c r="U71" t="s">
-        <v>135</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72">
@@ -16190,7 +16767,7 @@
         <v>255</v>
       </c>
       <c r="U72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73">
@@ -16198,7 +16775,7 @@
         <v>337</v>
       </c>
       <c r="U73" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="74">
@@ -16206,7 +16783,7 @@
         <v>273</v>
       </c>
       <c r="U74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75">
@@ -16214,7 +16791,7 @@
         <v>279</v>
       </c>
       <c r="U75" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="76">
@@ -16222,7 +16799,7 @@
         <v>284</v>
       </c>
       <c r="U76" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="77">
@@ -16230,7 +16807,7 @@
         <v>422</v>
       </c>
       <c r="U77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78">
@@ -16238,7 +16815,7 @@
         <v>325</v>
       </c>
       <c r="U78" t="s">
-        <v>504</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79">
@@ -16246,7 +16823,7 @@
         <v>263</v>
       </c>
       <c r="U79" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="80">
@@ -16254,7 +16831,7 @@
         <v>274</v>
       </c>
       <c r="U80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="81">
@@ -16262,7 +16839,7 @@
         <v>280</v>
       </c>
       <c r="U81" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82">
@@ -16270,7 +16847,7 @@
         <v>269</v>
       </c>
       <c r="U82" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83">
@@ -16278,7 +16855,7 @@
         <v>264</v>
       </c>
       <c r="U83" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -16286,7 +16863,7 @@
         <v>281</v>
       </c>
       <c r="U84" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85">
@@ -16294,7 +16871,7 @@
         <v>265</v>
       </c>
       <c r="U85" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86">
@@ -16302,7 +16879,7 @@
         <v>266</v>
       </c>
       <c r="U86" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87">
@@ -16310,7 +16887,7 @@
         <v>298</v>
       </c>
       <c r="U87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88">
@@ -16318,7 +16895,7 @@
         <v>304</v>
       </c>
       <c r="U88" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
@@ -16326,7 +16903,7 @@
         <v>288</v>
       </c>
       <c r="U89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
@@ -16334,7 +16911,7 @@
         <v>333</v>
       </c>
       <c r="U90" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -16342,7 +16919,7 @@
         <v>270</v>
       </c>
       <c r="U91" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
@@ -16350,126 +16927,131 @@
         <v>271</v>
       </c>
       <c r="U92" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,36 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11115" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11591" uniqueCount="517">
   <si>
     <t>description</t>
   </si>
@@ -1601,13 +1602,31 @@
   <si>
     <t>deselect(locator,text)</t>
   </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="372" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3846,8 +3865,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7385,8 +7505,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13910,6 +14183,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13917,7 +14472,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="398">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15036,49 +15591,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15403,7 +16006,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15422,75 +16025,78 @@
         <v>364</v>
       </c>
       <c r="C1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>340</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>326</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>189</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>232</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>51</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>389</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>405</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>406</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>350</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>390</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>52</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>53</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>54</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>407</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -15502,1556 +16108,1576 @@
         <v>365</v>
       </c>
       <c r="C2" t="s">
+        <v>512</v>
+      </c>
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>72</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>499</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>342</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>377</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>459</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>410</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>423</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>246</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>210</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>391</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>412</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>413</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>374</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>400</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>89</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>164</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>169</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>176</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>425</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>511</v>
       </c>
       <c r="B3" t="s">
         <v>366</v>
       </c>
       <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" t="s">
         <v>508</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>358</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>47</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>343</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>334</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>327</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>424</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>233</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>211</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>392</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>414</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>375</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>401</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>90</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>165</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>170</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>357</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>177</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>380</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>500</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>344</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>231</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>328</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>234</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>212</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>393</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>415</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>351</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>402</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>347</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>166</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>171</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>177</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>417</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>509</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>490</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>329</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>506</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>514</v>
+      </c>
+      <c r="L5" t="s">
         <v>85</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>235</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>213</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>394</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>416</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>352</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>348</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>172</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>178</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>418</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>381</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>501</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>236</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>384</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>395</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>354</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>91</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>494</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>173</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>179</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>419</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>217</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>359</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>497</v>
       </c>
-      <c r="I7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>237</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>411</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>396</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>353</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>92</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>495</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>174</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>180</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>420</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>311</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>360</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>321</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>460</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>238</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>397</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>355</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>93</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>168</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>175</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>181</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>421</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>340</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>299</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>322</v>
       </c>
-      <c r="I9" t="s">
-        <v>383</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>461</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>239</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>398</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>356</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>202</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>182</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>308</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>345</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>502</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>383</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>462</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>240</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>399</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>250</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>183</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>326</v>
+      </c>
+      <c r="D11" t="s">
         <v>248</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>267</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>315</v>
       </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>492</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>463</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>241</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>251</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>252</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>312</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>256</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>316</v>
       </c>
-      <c r="I12" t="s">
-        <v>79</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>464</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>242</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>94</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" t="s">
         <v>334</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>309</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="I13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>465</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>247</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>319</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>257</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>318</v>
       </c>
-      <c r="I14" t="s">
-        <v>507</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>466</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>243</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>95</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
         <v>57</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>258</v>
       </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>507</v>
+      </c>
+      <c r="N15" t="s">
         <v>467</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>244</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>96</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>389</v>
-      </c>
-      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
         <v>378</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>310</v>
       </c>
-      <c r="I16" t="s">
-        <v>82</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="O16" t="s">
         <v>245</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>73</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" t="s">
         <v>379</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>87</v>
       </c>
-      <c r="I17" t="s">
-        <v>373</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="V17" t="s">
         <v>97</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D18" t="s">
         <v>408</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>88</v>
       </c>
-      <c r="I18" t="s">
-        <v>43</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>373</v>
+      </c>
+      <c r="V18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
-      </c>
-      <c r="C19" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>289</v>
       </c>
-      <c r="I19" t="s">
-        <v>385</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+      <c r="V19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>390</v>
-      </c>
-      <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
         <v>59</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>290</v>
       </c>
-      <c r="I20" t="s">
-        <v>83</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>385</v>
+      </c>
+      <c r="V20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
+        <v>390</v>
+      </c>
+      <c r="D21" t="s">
         <v>249</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>291</v>
       </c>
-      <c r="I21" t="s">
-        <v>491</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>83</v>
+      </c>
+      <c r="V21" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
         <v>60</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>292</v>
       </c>
-      <c r="I22" t="s">
-        <v>44</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>491</v>
+      </c>
+      <c r="V22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
         <v>314</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>283</v>
       </c>
-      <c r="I23" t="s">
-        <v>45</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+      <c r="V23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" t="s">
         <v>61</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>272</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+      <c r="V24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>407</v>
-      </c>
-      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
         <v>498</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>74</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>407</v>
+      </c>
+      <c r="D26" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" t="s">
+        <v>275</v>
+      </c>
+      <c r="V26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>220</v>
       </c>
-      <c r="C26" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" t="s">
-        <v>275</v>
-      </c>
-      <c r="U26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>219</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>409</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>63</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>209</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>64</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>65</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>68</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>76</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>205</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>204</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="F52" t="s">
+        <v>324</v>
+      </c>
+      <c r="V52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="52">
-      <c r="E52" t="s">
-        <v>324</v>
-      </c>
-      <c r="U52" t="s">
+    <row r="53">
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
+      <c r="V53" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="53">
-      <c r="E53" t="s">
-        <v>261</v>
-      </c>
-      <c r="U53" t="s">
+    <row r="54">
+      <c r="F54" t="s">
+        <v>285</v>
+      </c>
+      <c r="V54" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="54">
-      <c r="E54" t="s">
-        <v>285</v>
-      </c>
-      <c r="U54" t="s">
+    <row r="55">
+      <c r="F55" t="s">
+        <v>286</v>
+      </c>
+      <c r="V55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="55">
-      <c r="E55" t="s">
-        <v>286</v>
-      </c>
-      <c r="U55" t="s">
+    <row r="56">
+      <c r="F56" t="s">
+        <v>287</v>
+      </c>
+      <c r="V56" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56">
-      <c r="E56" t="s">
-        <v>287</v>
-      </c>
-      <c r="U56" t="s">
+    <row r="57">
+      <c r="F57" t="s">
+        <v>296</v>
+      </c>
+      <c r="V57" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="57">
-      <c r="E57" t="s">
-        <v>296</v>
-      </c>
-      <c r="U57" t="s">
+    <row r="58">
+      <c r="F58" t="s">
+        <v>305</v>
+      </c>
+      <c r="V58" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="58">
-      <c r="E58" t="s">
-        <v>305</v>
-      </c>
-      <c r="U58" t="s">
+    <row r="59">
+      <c r="F59" t="s">
+        <v>330</v>
+      </c>
+      <c r="V59" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="59">
-      <c r="E59" t="s">
-        <v>330</v>
-      </c>
-      <c r="U59" t="s">
+    <row r="60">
+      <c r="F60" t="s">
+        <v>302</v>
+      </c>
+      <c r="V60" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="60">
-      <c r="E60" t="s">
-        <v>302</v>
-      </c>
-      <c r="U60" t="s">
+    <row r="61">
+      <c r="F61" t="s">
+        <v>303</v>
+      </c>
+      <c r="V61" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="61">
-      <c r="E61" t="s">
-        <v>303</v>
-      </c>
-      <c r="U61" t="s">
+    <row r="62">
+      <c r="F62" t="s">
+        <v>362</v>
+      </c>
+      <c r="V62" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="62">
-      <c r="E62" t="s">
-        <v>362</v>
-      </c>
-      <c r="U62" t="s">
+    <row r="63">
+      <c r="F63" t="s">
+        <v>363</v>
+      </c>
+      <c r="V63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="63">
-      <c r="E63" t="s">
-        <v>363</v>
-      </c>
-      <c r="U63" t="s">
+    <row r="64">
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+      <c r="V64" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="64">
-      <c r="E64" t="s">
-        <v>338</v>
-      </c>
-      <c r="U64" t="s">
+    <row r="65">
+      <c r="F65" t="s">
+        <v>306</v>
+      </c>
+      <c r="V65" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="65">
-      <c r="E65" t="s">
-        <v>306</v>
-      </c>
-      <c r="U65" t="s">
+    <row r="66">
+      <c r="F66" t="s">
+        <v>262</v>
+      </c>
+      <c r="V66" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66">
-      <c r="E66" t="s">
-        <v>262</v>
-      </c>
-      <c r="U66" t="s">
+    <row r="67">
+      <c r="F67" t="s">
+        <v>346</v>
+      </c>
+      <c r="V67" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="67">
-      <c r="E67" t="s">
-        <v>346</v>
-      </c>
-      <c r="U67" t="s">
+    <row r="68">
+      <c r="F68" t="s">
+        <v>307</v>
+      </c>
+      <c r="V68" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68">
-      <c r="E68" t="s">
-        <v>307</v>
-      </c>
-      <c r="U68" t="s">
+    <row r="69">
+      <c r="F69" t="s">
+        <v>403</v>
+      </c>
+      <c r="V69" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="69">
-      <c r="E69" t="s">
-        <v>403</v>
-      </c>
-      <c r="U69" t="s">
+    <row r="70">
+      <c r="F70" t="s">
+        <v>297</v>
+      </c>
+      <c r="V70" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="70">
-      <c r="E70" t="s">
-        <v>297</v>
-      </c>
-      <c r="U70" t="s">
+    <row r="71">
+      <c r="F71" t="s">
+        <v>404</v>
+      </c>
+      <c r="V71" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="71">
-      <c r="E71" t="s">
-        <v>404</v>
-      </c>
-      <c r="U71" t="s">
+    <row r="72">
+      <c r="F72" t="s">
+        <v>255</v>
+      </c>
+      <c r="V72" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="72">
-      <c r="E72" t="s">
-        <v>255</v>
-      </c>
-      <c r="U72" t="s">
+    <row r="73">
+      <c r="F73" t="s">
+        <v>337</v>
+      </c>
+      <c r="V73" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73">
-      <c r="E73" t="s">
-        <v>337</v>
-      </c>
-      <c r="U73" t="s">
+    <row r="74">
+      <c r="F74" t="s">
+        <v>273</v>
+      </c>
+      <c r="V74" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="74">
-      <c r="E74" t="s">
-        <v>273</v>
-      </c>
-      <c r="U74" t="s">
+    <row r="75">
+      <c r="F75" t="s">
+        <v>279</v>
+      </c>
+      <c r="V75" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="75">
-      <c r="E75" t="s">
-        <v>279</v>
-      </c>
-      <c r="U75" t="s">
+    <row r="76">
+      <c r="F76" t="s">
+        <v>284</v>
+      </c>
+      <c r="V76" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="76">
-      <c r="E76" t="s">
-        <v>284</v>
-      </c>
-      <c r="U76" t="s">
+    <row r="77">
+      <c r="F77" t="s">
+        <v>422</v>
+      </c>
+      <c r="V77" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="77">
-      <c r="E77" t="s">
-        <v>422</v>
-      </c>
-      <c r="U77" t="s">
+    <row r="78">
+      <c r="F78" t="s">
+        <v>325</v>
+      </c>
+      <c r="V78" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="78">
-      <c r="E78" t="s">
-        <v>325</v>
-      </c>
-      <c r="U78" t="s">
+    <row r="79">
+      <c r="F79" t="s">
+        <v>263</v>
+      </c>
+      <c r="V79" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="79">
-      <c r="E79" t="s">
-        <v>263</v>
-      </c>
-      <c r="U79" t="s">
+    <row r="80">
+      <c r="F80" t="s">
+        <v>274</v>
+      </c>
+      <c r="V80" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="80">
-      <c r="E80" t="s">
-        <v>274</v>
-      </c>
-      <c r="U80" t="s">
+    <row r="81">
+      <c r="F81" t="s">
+        <v>280</v>
+      </c>
+      <c r="V81" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="81">
-      <c r="E81" t="s">
-        <v>280</v>
-      </c>
-      <c r="U81" t="s">
+    <row r="82">
+      <c r="F82" t="s">
+        <v>269</v>
+      </c>
+      <c r="V82" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="82">
-      <c r="E82" t="s">
-        <v>269</v>
-      </c>
-      <c r="U82" t="s">
+    <row r="83">
+      <c r="F83" t="s">
+        <v>264</v>
+      </c>
+      <c r="V83" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="83">
-      <c r="E83" t="s">
-        <v>264</v>
-      </c>
-      <c r="U83" t="s">
+    <row r="84">
+      <c r="F84" t="s">
+        <v>281</v>
+      </c>
+      <c r="V84" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84">
-      <c r="E84" t="s">
-        <v>281</v>
-      </c>
-      <c r="U84" t="s">
+    <row r="85">
+      <c r="F85" t="s">
+        <v>265</v>
+      </c>
+      <c r="V85" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="85">
-      <c r="E85" t="s">
-        <v>265</v>
-      </c>
-      <c r="U85" t="s">
+    <row r="86">
+      <c r="F86" t="s">
+        <v>266</v>
+      </c>
+      <c r="V86" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="86">
-      <c r="E86" t="s">
-        <v>266</v>
-      </c>
-      <c r="U86" t="s">
+    <row r="87">
+      <c r="F87" t="s">
+        <v>298</v>
+      </c>
+      <c r="V87" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="87">
-      <c r="E87" t="s">
-        <v>298</v>
-      </c>
-      <c r="U87" t="s">
+    <row r="88">
+      <c r="F88" t="s">
+        <v>304</v>
+      </c>
+      <c r="V88" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="88">
-      <c r="E88" t="s">
-        <v>304</v>
-      </c>
-      <c r="U88" t="s">
+    <row r="89">
+      <c r="F89" t="s">
+        <v>288</v>
+      </c>
+      <c r="V89" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="89">
-      <c r="E89" t="s">
-        <v>288</v>
-      </c>
-      <c r="U89" t="s">
+    <row r="90">
+      <c r="F90" t="s">
+        <v>333</v>
+      </c>
+      <c r="V90" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="90">
-      <c r="E90" t="s">
-        <v>333</v>
-      </c>
-      <c r="U90" t="s">
+    <row r="91">
+      <c r="F91" t="s">
+        <v>270</v>
+      </c>
+      <c r="V91" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="91">
-      <c r="E91" t="s">
-        <v>270</v>
-      </c>
-      <c r="U91" t="s">
+    <row r="92">
+      <c r="F92" t="s">
+        <v>271</v>
+      </c>
+      <c r="V92" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="92">
-      <c r="E92" t="s">
-        <v>271</v>
-      </c>
-      <c r="U92" t="s">
+    <row r="93">
+      <c r="V93" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="93">
-      <c r="U93" t="s">
+    <row r="94">
+      <c r="V94" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="94">
-      <c r="U94" t="s">
+    <row r="95">
+      <c r="V95" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95">
-      <c r="U95" t="s">
+    <row r="96">
+      <c r="V96" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="96">
-      <c r="U96" t="s">
+    <row r="97">
+      <c r="V97" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="97">
-      <c r="U97" t="s">
+    <row r="98">
+      <c r="V98" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="98">
-      <c r="U98" t="s">
+    <row r="99">
+      <c r="V99" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="99">
-      <c r="U99" t="s">
+    <row r="100">
+      <c r="V100" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="100">
-      <c r="U100" t="s">
+    <row r="101">
+      <c r="V101" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101">
-      <c r="U101" t="s">
+    <row r="102">
+      <c r="V102" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="102">
-      <c r="U102" t="s">
+    <row r="103">
+      <c r="V103" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="103">
-      <c r="U103" t="s">
+    <row r="104">
+      <c r="V104" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="104">
-      <c r="U104" t="s">
+    <row r="105">
+      <c r="V105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="105">
-      <c r="U105" t="s">
+    <row r="106">
+      <c r="V106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="106">
-      <c r="U106" t="s">
+    <row r="107">
+      <c r="V107" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="107">
-      <c r="U107" t="s">
+    <row r="108">
+      <c r="V108" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="108">
-      <c r="U108" t="s">
+    <row r="109">
+      <c r="V109" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="109">
-      <c r="U109" t="s">
+    <row r="110">
+      <c r="V110" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="110">
-      <c r="U110" t="s">
+    <row r="111">
+      <c r="V111" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="111">
-      <c r="U111" t="s">
+    <row r="112">
+      <c r="V112" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="112">
-      <c r="U112" t="s">
+    <row r="113">
+      <c r="V113" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="113">
-      <c r="U113" t="s">
+    <row r="114">
+      <c r="V114" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="114">
-      <c r="U114" t="s">
+    <row r="115">
+      <c r="V115" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115">
-      <c r="U115" t="s">
+    <row r="116">
+      <c r="V116" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="116">
-      <c r="U116" t="s">
+    <row r="117">
+      <c r="V117" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="117">
-      <c r="U117" t="s">
+    <row r="118">
+      <c r="V118" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -25,7 +25,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11591" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="518">
   <si>
     <t>description</t>
   </si>
@@ -1620,13 +1620,16 @@
   <si>
     <t>upload(url,body,fileParams,var)</t>
   </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="372" x14ac:knownFonts="1">
+  <fonts count="388" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3966,8 +3969,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7658,8 +7762,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -7696,6 +7953,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -14472,7 +15011,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15636,52 +16175,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="636" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="636" fontId="360" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="639" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="639" fontId="362" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16126,7 +16713,7 @@
         <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>342</v>
+        <v>517</v>
       </c>
       <c r="J2" t="s">
         <v>308</v>
@@ -16209,7 +16796,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J3" t="s">
         <v>334</v>
@@ -16280,7 +16867,7 @@
         <v>500</v>
       </c>
       <c r="I4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J4" t="s">
         <v>231</v>
@@ -16351,7 +16938,7 @@
         <v>506</v>
       </c>
       <c r="I5" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="J5" t="s">
         <v>514</v>
@@ -16411,6 +16998,9 @@
       </c>
       <c r="G6" t="s">
         <v>501</v>
+      </c>
+      <c r="I6" t="s">
+        <v>341</v>
       </c>
       <c r="J6" t="s">
         <v>70</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12068" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13029" uniqueCount="522">
   <si>
     <t>description</t>
   </si>
@@ -1623,13 +1623,25 @@
   <si>
     <t>colorbit(source,bit,saveTo)</t>
   </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="420" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4070,8 +4082,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="733">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7915,8 +8129,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="759">
     <border>
       <left/>
       <right/>
@@ -7953,6 +8473,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -15011,7 +16095,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="446">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16223,52 +17307,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="373" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="375" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="376" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="377" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="378" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="388" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="389" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="390" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="391" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="392" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="393" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="394" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="395" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="399" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="400" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16593,7 +17773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17461,7 +18641,7 @@
         <v>289</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>521</v>
       </c>
       <c r="V19" t="s">
         <v>99</v>
@@ -17478,7 +18658,7 @@
         <v>290</v>
       </c>
       <c r="J20" t="s">
-        <v>385</v>
+        <v>43</v>
       </c>
       <c r="V20" t="s">
         <v>100</v>
@@ -17495,7 +18675,7 @@
         <v>291</v>
       </c>
       <c r="J21" t="s">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="V21" t="s">
         <v>101</v>
@@ -17512,7 +18692,7 @@
         <v>292</v>
       </c>
       <c r="J22" t="s">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="V22" t="s">
         <v>102</v>
@@ -17529,7 +18709,7 @@
         <v>283</v>
       </c>
       <c r="J23" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="V23" t="s">
         <v>103</v>
@@ -17546,7 +18726,7 @@
         <v>272</v>
       </c>
       <c r="J24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="V24" t="s">
         <v>104</v>
@@ -17562,6 +18742,9 @@
       <c r="F25" t="s">
         <v>74</v>
       </c>
+      <c r="J25" t="s">
+        <v>45</v>
+      </c>
       <c r="V25" t="s">
         <v>105</v>
       </c>
@@ -17596,7 +18779,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>409</v>
+        <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
@@ -17607,7 +18790,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>62</v>
+        <v>519</v>
       </c>
       <c r="F29" t="s">
         <v>277</v>
@@ -17618,7 +18801,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>63</v>
+        <v>409</v>
       </c>
       <c r="F30" t="s">
         <v>209</v>
@@ -17629,7 +18812,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
         <v>268</v>
@@ -17640,7 +18823,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F32" t="s">
         <v>278</v>
@@ -17651,7 +18834,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F33" t="s">
         <v>253</v>
@@ -17662,7 +18845,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
         <v>323</v>
@@ -17673,7 +18856,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
         <v>300</v>
@@ -17684,7 +18867,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
         <v>254</v>
@@ -17694,6 +18877,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
       <c r="F37" t="s">
         <v>301</v>
       </c>
@@ -17702,6 +18888,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
       <c r="F38" t="s">
         <v>260</v>
       </c>
@@ -17986,7 +19175,7 @@
         <v>337</v>
       </c>
       <c r="V73" t="s">
-        <v>135</v>
+        <v>520</v>
       </c>
     </row>
     <row r="74">
@@ -17994,7 +19183,7 @@
         <v>273</v>
       </c>
       <c r="V74" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75">
@@ -18002,7 +19191,7 @@
         <v>279</v>
       </c>
       <c r="V75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -18010,7 +19199,7 @@
         <v>284</v>
       </c>
       <c r="V76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -18018,7 +19207,7 @@
         <v>422</v>
       </c>
       <c r="V77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -18026,7 +19215,7 @@
         <v>325</v>
       </c>
       <c r="V78" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -18034,7 +19223,7 @@
         <v>263</v>
       </c>
       <c r="V79" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
@@ -18042,7 +19231,7 @@
         <v>274</v>
       </c>
       <c r="V80" t="s">
-        <v>504</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81">
@@ -18050,7 +19239,7 @@
         <v>280</v>
       </c>
       <c r="V81" t="s">
-        <v>194</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82">
@@ -18058,7 +19247,7 @@
         <v>269</v>
       </c>
       <c r="V82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83">
@@ -18066,7 +19255,7 @@
         <v>264</v>
       </c>
       <c r="V83" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84">
@@ -18074,7 +19263,7 @@
         <v>281</v>
       </c>
       <c r="V84" t="s">
-        <v>140</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85">
@@ -18082,7 +19271,7 @@
         <v>265</v>
       </c>
       <c r="V85" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="86">
@@ -18090,7 +19279,7 @@
         <v>266</v>
       </c>
       <c r="V86" t="s">
-        <v>484</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87">
@@ -18098,7 +19287,7 @@
         <v>298</v>
       </c>
       <c r="V87" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88">
@@ -18106,7 +19295,7 @@
         <v>304</v>
       </c>
       <c r="V88" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89">
@@ -18114,7 +19303,7 @@
         <v>288</v>
       </c>
       <c r="V89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90">
@@ -18122,7 +19311,7 @@
         <v>333</v>
       </c>
       <c r="V90" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="91">
@@ -18130,7 +19319,7 @@
         <v>270</v>
       </c>
       <c r="V91" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="92">
@@ -18138,136 +19327,141 @@
         <v>271</v>
       </c>
       <c r="V92" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -24,31 +24,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13029" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13523" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1635,13 +1636,55 @@
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
   </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="420" x14ac:knownFonts="1">
+  <fonts count="436" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4284,8 +4327,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="733">
+  <fills count="760">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8435,8 +8579,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="759">
+  <borders count="787">
     <border>
       <left/>
       <right/>
@@ -8473,6 +8770,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16095,7 +16674,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="446">
+  <cellXfs count="462">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -17403,52 +17982,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="403" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="404" fillId="708" borderId="738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="404" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="405" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="406" fillId="711" borderId="742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="406" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="407" fillId="714" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="407" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="408" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="408" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="409" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="410" fillId="720" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="410" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="411" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="412" fillId="723" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="726" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="729" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="415" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="416" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="732" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="717" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="418" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17773,7 +18400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17822,48 +18449,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>522</v>
+      </c>
+      <c r="N1" t="s">
         <v>189</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>50</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>232</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>389</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>405</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>406</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>350</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>390</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>407</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -17905,48 +18535,51 @@
         <v>459</v>
       </c>
       <c r="M2" t="s">
+        <v>527</v>
+      </c>
+      <c r="N2" t="s">
         <v>410</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>423</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>246</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>210</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>391</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>412</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>413</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>374</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>400</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>89</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>164</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>169</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>176</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>425</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>221</v>
       </c>
     </row>
@@ -17973,7 +18606,7 @@
         <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>523</v>
       </c>
       <c r="I3" t="s">
         <v>342</v>
@@ -17987,43 +18620,46 @@
       <c r="L3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>528</v>
+      </c>
+      <c r="O3" t="s">
         <v>424</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>233</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>211</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>392</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>414</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>375</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>401</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>90</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>165</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>170</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>357</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>177</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>222</v>
       </c>
     </row>
@@ -18046,6 +18682,9 @@
       <c r="G4" t="s">
         <v>500</v>
       </c>
+      <c r="H4" t="s">
+        <v>524</v>
+      </c>
       <c r="I4" t="s">
         <v>343</v>
       </c>
@@ -18058,43 +18697,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>529</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>234</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>212</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>393</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>415</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>351</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>402</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>347</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>166</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>171</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>417</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -18126,40 +18768,40 @@
       <c r="L5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>235</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>213</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>394</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>416</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>352</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>348</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>167</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>172</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>178</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>418</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>224</v>
       </c>
     </row>
@@ -18188,37 +18830,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>236</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>384</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>395</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>354</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>91</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>494</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>173</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>179</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>419</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>225</v>
       </c>
     </row>
@@ -18244,37 +18886,37 @@
       <c r="L7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>237</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>411</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>396</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>353</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>92</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>495</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>174</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>180</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>420</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -18300,34 +18942,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>460</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>238</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>397</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>355</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>93</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>168</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>175</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>181</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>421</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>227</v>
       </c>
     </row>
@@ -18353,26 +18995,26 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>461</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>239</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>398</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>356</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>202</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>182</v>
       </c>
-      <c r="AA9" t="s">
-        <v>228</v>
+      <c r="AB9" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="10">
@@ -18394,23 +19036,23 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>462</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>240</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>399</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>250</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>183</v>
       </c>
-      <c r="AA10" t="s">
-        <v>229</v>
+      <c r="AB10" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="11">
@@ -18430,22 +19072,22 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>492</v>
-      </c>
-      <c r="N11" t="s">
+        <v>525</v>
+      </c>
+      <c r="O11" t="s">
         <v>463</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>241</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>251</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>252</v>
       </c>
-      <c r="AA11" t="s">
-        <v>230</v>
+      <c r="AB11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="12">
@@ -18465,24 +19107,27 @@
         <v>41</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" t="s">
+        <v>492</v>
+      </c>
+      <c r="O12" t="s">
         <v>464</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>242</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>94</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>184</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>189</v>
+        <v>522</v>
       </c>
       <c r="D13" t="s">
         <v>334</v>
@@ -18497,24 +19142,27 @@
         <v>79</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" t="s">
+        <v>526</v>
+      </c>
+      <c r="O13" t="s">
         <v>465</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>247</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>319</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>185</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -18529,24 +19177,24 @@
         <v>80</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" t="s">
         <v>466</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>243</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -18557,22 +19205,25 @@
       <c r="J15" t="s">
         <v>507</v>
       </c>
-      <c r="N15" t="s">
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>467</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>244</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>96</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="D16" t="s">
         <v>378</v>
@@ -18583,19 +19234,22 @@
       <c r="J16" t="s">
         <v>81</v>
       </c>
-      <c r="O16" t="s">
+      <c r="L16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
         <v>245</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>73</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
         <v>379</v>
@@ -18606,16 +19260,16 @@
       <c r="J17" t="s">
         <v>82</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>97</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D18" t="s">
         <v>408</v>
@@ -18626,13 +19280,13 @@
       <c r="J18" t="s">
         <v>373</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
@@ -18643,13 +19297,13 @@
       <c r="J19" t="s">
         <v>521</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
@@ -18660,13 +19314,13 @@
       <c r="J20" t="s">
         <v>43</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="D21" t="s">
         <v>249</v>
@@ -18677,13 +19331,13 @@
       <c r="J21" t="s">
         <v>385</v>
       </c>
-      <c r="V21" t="s">
-        <v>101</v>
+      <c r="W21" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="D22" t="s">
         <v>60</v>
@@ -18694,13 +19348,13 @@
       <c r="J22" t="s">
         <v>83</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D23" t="s">
         <v>314</v>
@@ -18711,13 +19365,13 @@
       <c r="J23" t="s">
         <v>491</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>61</v>
@@ -18728,13 +19382,13 @@
       <c r="J24" t="s">
         <v>44</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>498</v>
@@ -18745,13 +19399,13 @@
       <c r="J25" t="s">
         <v>45</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>407</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
         <v>218</v>
@@ -18759,13 +19413,13 @@
       <c r="F26" t="s">
         <v>275</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="D27" t="s">
         <v>219</v>
@@ -18773,18 +19427,21 @@
       <c r="F27" t="s">
         <v>259</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>220</v>
+      </c>
       <c r="D28" t="s">
         <v>518</v>
       </c>
       <c r="F28" t="s">
         <v>276</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>107</v>
       </c>
     </row>
@@ -18795,7 +19452,7 @@
       <c r="F29" t="s">
         <v>277</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>108</v>
       </c>
     </row>
@@ -18806,7 +19463,7 @@
       <c r="F30" t="s">
         <v>209</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>109</v>
       </c>
     </row>
@@ -18817,7 +19474,7 @@
       <c r="F31" t="s">
         <v>268</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>110</v>
       </c>
     </row>
@@ -18828,7 +19485,7 @@
       <c r="F32" t="s">
         <v>278</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>111</v>
       </c>
     </row>
@@ -18839,7 +19496,7 @@
       <c r="F33" t="s">
         <v>253</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>112</v>
       </c>
     </row>
@@ -18850,7 +19507,7 @@
       <c r="F34" t="s">
         <v>323</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>203</v>
       </c>
     </row>
@@ -18861,7 +19518,7 @@
       <c r="F35" t="s">
         <v>300</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>113</v>
       </c>
     </row>
@@ -18872,7 +19529,7 @@
       <c r="F36" t="s">
         <v>254</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>331</v>
       </c>
     </row>
@@ -18883,7 +19540,7 @@
       <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>468</v>
       </c>
     </row>
@@ -18894,7 +19551,7 @@
       <c r="F38" t="s">
         <v>260</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>386</v>
       </c>
     </row>
@@ -18902,7 +19559,7 @@
       <c r="F39" t="s">
         <v>76</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>114</v>
       </c>
     </row>
@@ -18910,7 +19567,7 @@
       <c r="F40" t="s">
         <v>205</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>115</v>
       </c>
     </row>
@@ -18918,7 +19575,7 @@
       <c r="F41" t="s">
         <v>282</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>116</v>
       </c>
     </row>
@@ -18926,7 +19583,7 @@
       <c r="F42" t="s">
         <v>293</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>117</v>
       </c>
     </row>
@@ -18934,7 +19591,7 @@
       <c r="F43" t="s">
         <v>294</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>118</v>
       </c>
     </row>
@@ -18942,7 +19599,7 @@
       <c r="F44" t="s">
         <v>336</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -18950,7 +19607,7 @@
       <c r="F45" t="s">
         <v>335</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>488</v>
       </c>
     </row>
@@ -18958,7 +19615,7 @@
       <c r="F46" t="s">
         <v>204</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>206</v>
       </c>
     </row>
@@ -18966,7 +19623,7 @@
       <c r="F47" t="s">
         <v>313</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>75</v>
       </c>
     </row>
@@ -18974,7 +19631,7 @@
       <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>120</v>
       </c>
     </row>
@@ -18982,7 +19639,7 @@
       <c r="F49" t="s">
         <v>361</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>121</v>
       </c>
     </row>
@@ -18990,7 +19647,7 @@
       <c r="F50" t="s">
         <v>295</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>122</v>
       </c>
     </row>
@@ -18998,470 +19655,485 @@
       <c r="F51" t="s">
         <v>349</v>
       </c>
-      <c r="V51" t="s">
-        <v>515</v>
+      <c r="W51" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>324</v>
       </c>
-      <c r="V52" t="s">
-        <v>123</v>
+      <c r="W52" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>261</v>
       </c>
-      <c r="V53" t="s">
-        <v>339</v>
+      <c r="W53" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>285</v>
       </c>
-      <c r="V54" t="s">
-        <v>510</v>
+      <c r="W54" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>286</v>
       </c>
-      <c r="V55" t="s">
-        <v>124</v>
+      <c r="W55" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>287</v>
       </c>
-      <c r="V56" t="s">
-        <v>125</v>
+      <c r="W56" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>296</v>
       </c>
-      <c r="V57" t="s">
-        <v>126</v>
+      <c r="W57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>305</v>
       </c>
-      <c r="V58" t="s">
-        <v>127</v>
+      <c r="W58" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>330</v>
       </c>
-      <c r="V59" t="s">
-        <v>128</v>
+      <c r="W59" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>302</v>
       </c>
-      <c r="V60" t="s">
-        <v>129</v>
+      <c r="W60" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>303</v>
       </c>
-      <c r="V61" t="s">
-        <v>130</v>
+      <c r="W61" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>362</v>
       </c>
-      <c r="V62" t="s">
-        <v>487</v>
+      <c r="W62" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>363</v>
       </c>
-      <c r="V63" t="s">
-        <v>207</v>
+      <c r="W63" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>338</v>
       </c>
-      <c r="V64" t="s">
-        <v>382</v>
+      <c r="W64" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>306</v>
       </c>
-      <c r="V65" t="s">
-        <v>493</v>
+      <c r="W65" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>262</v>
       </c>
-      <c r="V66" t="s">
-        <v>131</v>
+      <c r="W66" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>346</v>
       </c>
-      <c r="V67" t="s">
-        <v>132</v>
+      <c r="W67" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>307</v>
       </c>
-      <c r="V68" t="s">
-        <v>133</v>
+      <c r="W68" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>403</v>
       </c>
-      <c r="V69" t="s">
-        <v>134</v>
+      <c r="W69" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>297</v>
       </c>
-      <c r="V70" t="s">
-        <v>190</v>
+      <c r="W70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>404</v>
       </c>
-      <c r="V71" t="s">
-        <v>191</v>
+      <c r="W71" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>255</v>
       </c>
-      <c r="V72" t="s">
-        <v>505</v>
+      <c r="W72" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>337</v>
       </c>
-      <c r="V73" t="s">
-        <v>520</v>
+      <c r="W73" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>273</v>
       </c>
-      <c r="V74" t="s">
-        <v>135</v>
+      <c r="W74" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>279</v>
       </c>
-      <c r="V75" t="s">
-        <v>136</v>
+      <c r="W75" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>284</v>
       </c>
-      <c r="V76" t="s">
-        <v>137</v>
+      <c r="W76" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>422</v>
       </c>
-      <c r="V77" t="s">
-        <v>138</v>
+      <c r="W77" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>325</v>
       </c>
-      <c r="V78" t="s">
-        <v>139</v>
+      <c r="W78" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>263</v>
       </c>
-      <c r="V79" t="s">
-        <v>192</v>
+      <c r="W79" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>274</v>
       </c>
-      <c r="V80" t="s">
-        <v>193</v>
+      <c r="W80" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>280</v>
       </c>
-      <c r="V81" t="s">
-        <v>504</v>
+      <c r="W81" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>269</v>
       </c>
-      <c r="V82" t="s">
-        <v>194</v>
+      <c r="W82" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>264</v>
       </c>
-      <c r="V83" t="s">
-        <v>195</v>
+      <c r="W83" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>281</v>
       </c>
-      <c r="V84" t="s">
-        <v>208</v>
+      <c r="W84" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>265</v>
       </c>
-      <c r="V85" t="s">
-        <v>140</v>
+      <c r="W85" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>266</v>
       </c>
-      <c r="V86" t="s">
-        <v>196</v>
+      <c r="W86" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>298</v>
       </c>
-      <c r="V87" t="s">
-        <v>484</v>
+      <c r="W87" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>304</v>
       </c>
-      <c r="V88" t="s">
-        <v>486</v>
+      <c r="W88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>288</v>
       </c>
-      <c r="V89" t="s">
-        <v>197</v>
+      <c r="W89" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>333</v>
       </c>
-      <c r="V90" t="s">
-        <v>198</v>
+      <c r="W90" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>270</v>
       </c>
-      <c r="V91" t="s">
-        <v>199</v>
+      <c r="W91" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="W95" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,38 +18,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13523" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15048" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1678,13 +1679,64 @@
   <si>
     <t>minify(xml,var)</t>
   </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="436" x14ac:knownFonts="1">
+  <fonts count="484" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4428,8 +4480,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="760">
+  <fills count="841">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8732,8 +9087,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="787">
+  <borders count="871">
     <border>
       <left/>
       <right/>
@@ -8770,6 +9584,852 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -16674,7 +18334,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="462">
+  <cellXfs count="510">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18030,52 +19690,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="419" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="735" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="738" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="422" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="741" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="423" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="744" borderId="774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="425" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="747" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="426" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="750" borderId="778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="428" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="429" fillId="753" borderId="782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="429" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="430" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="431" fillId="756" borderId="786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="431" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="432" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="432" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="433" fillId="759" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="433" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="434" fillId="744" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="435" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="438" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="439" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="441" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="442" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="445" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="447" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="448" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="449" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="453" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="455" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="456" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="457" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="458" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18400,7 +20204,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -18422,78 +20226,81 @@
         <v>511</v>
       </c>
       <c r="D1" t="s">
+        <v>536</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>49</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>340</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>326</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>522</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>189</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>50</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>232</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>389</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>405</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>406</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>350</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>390</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>52</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>407</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -18508,79 +20315,82 @@
         <v>512</v>
       </c>
       <c r="D2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E2" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>70</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>499</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>77</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>517</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>377</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>459</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>527</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>410</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>423</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>246</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>210</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>391</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>412</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>413</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>374</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>400</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>89</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>164</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>176</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>425</v>
       </c>
-      <c r="AB2" t="s">
-        <v>221</v>
+      <c r="AC2" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="3">
@@ -18594,1546 +20404,1595 @@
         <v>513</v>
       </c>
       <c r="D3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" t="s">
         <v>508</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>358</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>86</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>47</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>523</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>334</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>327</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>84</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>528</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>424</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>233</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>211</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>392</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>414</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>375</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>401</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>90</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>165</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>170</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>357</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>177</v>
       </c>
-      <c r="AB3" t="s">
-        <v>222</v>
+      <c r="AC3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>536</v>
       </c>
       <c r="B4" t="s">
         <v>367</v>
       </c>
       <c r="D4" t="s">
+        <v>539</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>380</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>500</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>524</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>343</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>231</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>328</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>529</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>212</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>393</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>415</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>351</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>402</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>347</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>166</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>171</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>417</v>
       </c>
-      <c r="AB4" t="s">
-        <v>223</v>
+      <c r="AC4" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
       </c>
       <c r="D5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E5" t="s">
         <v>509</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>490</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>329</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>344</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>514</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>235</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>213</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>394</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>416</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>352</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>348</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>167</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>172</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>418</v>
       </c>
-      <c r="AB5" t="s">
-        <v>224</v>
+      <c r="AC5" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>381</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>501</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>341</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>70</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>236</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>384</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>395</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>354</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>91</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>494</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>173</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>419</v>
       </c>
-      <c r="AB6" t="s">
-        <v>225</v>
+      <c r="AC6" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>217</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>359</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>497</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>237</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>411</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>396</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>353</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>92</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>495</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>174</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>420</v>
       </c>
-      <c r="AB7" t="s">
-        <v>226</v>
+      <c r="AC7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>311</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>360</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>321</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>460</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>238</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>397</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>355</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>93</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>168</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>175</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>421</v>
       </c>
-      <c r="AB8" t="s">
-        <v>227</v>
+      <c r="AC8" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>299</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>322</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>461</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>239</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>398</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>356</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>202</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>182</v>
       </c>
-      <c r="AB9" t="s">
-        <v>534</v>
+      <c r="AC9" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" t="s">
         <v>308</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>345</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>502</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>383</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>462</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>240</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>399</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>250</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>183</v>
       </c>
-      <c r="AB10" t="s">
-        <v>535</v>
+      <c r="AC10" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>248</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>267</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>315</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>525</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>463</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>241</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>251</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>252</v>
       </c>
-      <c r="AB11" t="s">
-        <v>228</v>
+      <c r="AC11" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>326</v>
+      </c>
+      <c r="E12" t="s">
         <v>312</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>256</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>316</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>492</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>464</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>242</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>94</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>184</v>
       </c>
-      <c r="AB12" t="s">
-        <v>229</v>
+      <c r="AC12" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>522</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>334</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>309</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>317</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>79</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>526</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>465</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>247</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>319</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>185</v>
       </c>
-      <c r="AB13" t="s">
-        <v>230</v>
+      <c r="AC13" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>257</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>318</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>80</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>466</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>243</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>95</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>186</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>258</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>507</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
-        <v>467</v>
-      </c>
       <c r="P15" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q15" t="s">
         <v>244</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>96</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>187</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>232</v>
-      </c>
-      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
         <v>378</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>310</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>81</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>42</v>
       </c>
       <c r="P16" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q16" t="s">
         <v>245</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>73</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>188</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" t="s">
+        <v>232</v>
+      </c>
+      <c r="E17" t="s">
         <v>379</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>87</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>82</v>
       </c>
-      <c r="W17" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z17" t="s">
+      <c r="X17" t="s">
+        <v>552</v>
+      </c>
+      <c r="AA17" t="s">
         <v>516</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>389</v>
-      </c>
-      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>408</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>88</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>373</v>
       </c>
-      <c r="W18" t="s">
-        <v>98</v>
+      <c r="X18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>405</v>
-      </c>
-      <c r="D19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>289</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>521</v>
       </c>
-      <c r="W19" t="s">
-        <v>99</v>
+      <c r="X19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>406</v>
-      </c>
-      <c r="D20" t="s">
+        <v>405</v>
+      </c>
+      <c r="E20" t="s">
         <v>59</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>290</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>43</v>
       </c>
-      <c r="W20" t="s">
-        <v>100</v>
+      <c r="X20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>350</v>
-      </c>
-      <c r="D21" t="s">
+        <v>406</v>
+      </c>
+      <c r="E21" t="s">
         <v>249</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>291</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>385</v>
       </c>
-      <c r="W21" t="s">
-        <v>530</v>
+      <c r="X21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>292</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>83</v>
       </c>
-      <c r="W22" t="s">
-        <v>102</v>
+      <c r="X22" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E23" t="s">
         <v>314</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>283</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>491</v>
       </c>
-      <c r="W23" t="s">
-        <v>103</v>
+      <c r="X23" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
         <v>61</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>272</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>44</v>
       </c>
-      <c r="W24" t="s">
-        <v>104</v>
+      <c r="X24" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>498</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>74</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>45</v>
       </c>
-      <c r="W25" t="s">
-        <v>105</v>
+      <c r="X25" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s">
         <v>218</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>275</v>
       </c>
-      <c r="W26" t="s">
-        <v>106</v>
+      <c r="X26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>407</v>
-      </c>
-      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
         <v>219</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>259</v>
       </c>
-      <c r="W27" t="s">
-        <v>320</v>
+      <c r="X27" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>407</v>
+      </c>
+      <c r="E28" t="s">
+        <v>518</v>
+      </c>
+      <c r="G28" t="s">
+        <v>276</v>
+      </c>
+      <c r="X28" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>220</v>
       </c>
-      <c r="D28" t="s">
-        <v>518</v>
-      </c>
-      <c r="F28" t="s">
-        <v>276</v>
-      </c>
-      <c r="W28" t="s">
+      <c r="E29" t="s">
+        <v>519</v>
+      </c>
+      <c r="G29" t="s">
+        <v>277</v>
+      </c>
+      <c r="X29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="29">
-      <c r="D29" t="s">
-        <v>519</v>
-      </c>
-      <c r="F29" t="s">
-        <v>277</v>
-      </c>
-      <c r="W29" t="s">
+    <row r="30">
+      <c r="E30" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" t="s">
+        <v>209</v>
+      </c>
+      <c r="X30" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="30">
-      <c r="D30" t="s">
-        <v>409</v>
-      </c>
-      <c r="F30" t="s">
-        <v>209</v>
-      </c>
-      <c r="W30" t="s">
+    <row r="31">
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="G31" t="s">
+        <v>268</v>
+      </c>
+      <c r="X31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="31">
-      <c r="D31" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" t="s">
-        <v>268</v>
-      </c>
-      <c r="W31" t="s">
+    <row r="32">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
+        <v>278</v>
+      </c>
+      <c r="X32" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32">
-      <c r="D32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>278</v>
-      </c>
-      <c r="W32" t="s">
+    <row r="33">
+      <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
+        <v>253</v>
+      </c>
+      <c r="X33" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33">
-      <c r="D33" t="s">
-        <v>64</v>
-      </c>
-      <c r="F33" t="s">
-        <v>253</v>
-      </c>
-      <c r="W33" t="s">
+    <row r="34">
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" t="s">
+        <v>323</v>
+      </c>
+      <c r="X34" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34">
-      <c r="D34" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>323</v>
-      </c>
-      <c r="W34" t="s">
+    <row r="35">
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>300</v>
+      </c>
+      <c r="X35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35">
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>300</v>
-      </c>
-      <c r="W35" t="s">
+    <row r="36">
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>254</v>
+      </c>
+      <c r="X36" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="36">
-      <c r="D36" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>254</v>
-      </c>
-      <c r="W36" t="s">
+    <row r="37">
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="G37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" t="s">
-        <v>301</v>
-      </c>
-      <c r="W37" t="s">
+    <row r="38">
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="G38" t="s">
+        <v>260</v>
+      </c>
+      <c r="X38" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="38">
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" t="s">
-        <v>260</v>
-      </c>
-      <c r="W38" t="s">
+    <row r="39">
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="X39" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="39">
-      <c r="F39" t="s">
-        <v>76</v>
-      </c>
-      <c r="W39" t="s">
+    <row r="40">
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+      <c r="X40" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="40">
-      <c r="F40" t="s">
-        <v>205</v>
-      </c>
-      <c r="W40" t="s">
+    <row r="41">
+      <c r="G41" t="s">
+        <v>282</v>
+      </c>
+      <c r="X41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41">
-      <c r="F41" t="s">
-        <v>282</v>
-      </c>
-      <c r="W41" t="s">
+    <row r="42">
+      <c r="G42" t="s">
+        <v>293</v>
+      </c>
+      <c r="X42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="42">
-      <c r="F42" t="s">
-        <v>293</v>
-      </c>
-      <c r="W42" t="s">
+    <row r="43">
+      <c r="G43" t="s">
+        <v>294</v>
+      </c>
+      <c r="X43" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="43">
-      <c r="F43" t="s">
-        <v>294</v>
-      </c>
-      <c r="W43" t="s">
+    <row r="44">
+      <c r="G44" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="44">
-      <c r="F44" t="s">
-        <v>336</v>
-      </c>
-      <c r="W44" t="s">
+    <row r="45">
+      <c r="G45" t="s">
+        <v>335</v>
+      </c>
+      <c r="X45" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="45">
-      <c r="F45" t="s">
-        <v>335</v>
-      </c>
-      <c r="W45" t="s">
+    <row r="46">
+      <c r="G46" t="s">
+        <v>204</v>
+      </c>
+      <c r="X46" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="46">
-      <c r="F46" t="s">
-        <v>204</v>
-      </c>
-      <c r="W46" t="s">
+    <row r="47">
+      <c r="G47" t="s">
+        <v>313</v>
+      </c>
+      <c r="X47" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47">
-      <c r="F47" t="s">
-        <v>313</v>
-      </c>
-      <c r="W47" t="s">
+    <row r="48">
+      <c r="G48" t="s">
+        <v>332</v>
+      </c>
+      <c r="X48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48">
-      <c r="F48" t="s">
-        <v>332</v>
-      </c>
-      <c r="W48" t="s">
+    <row r="49">
+      <c r="G49" t="s">
+        <v>361</v>
+      </c>
+      <c r="X49" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="49">
-      <c r="F49" t="s">
-        <v>361</v>
-      </c>
-      <c r="W49" t="s">
+    <row r="50">
+      <c r="G50" t="s">
+        <v>295</v>
+      </c>
+      <c r="X50" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="50">
-      <c r="F50" t="s">
-        <v>295</v>
-      </c>
-      <c r="W50" t="s">
+    <row r="51">
+      <c r="G51" t="s">
+        <v>349</v>
+      </c>
+      <c r="X51" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="51">
-      <c r="F51" t="s">
-        <v>349</v>
-      </c>
-      <c r="W51" t="s">
+    <row r="52">
+      <c r="G52" t="s">
+        <v>324</v>
+      </c>
+      <c r="X52" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="52">
-      <c r="F52" t="s">
-        <v>324</v>
-      </c>
-      <c r="W52" t="s">
+    <row r="53">
+      <c r="G53" t="s">
+        <v>261</v>
+      </c>
+      <c r="X53" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="53">
-      <c r="F53" t="s">
-        <v>261</v>
-      </c>
-      <c r="W53" t="s">
+    <row r="54">
+      <c r="G54" t="s">
+        <v>285</v>
+      </c>
+      <c r="X54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="54">
-      <c r="F54" t="s">
-        <v>285</v>
-      </c>
-      <c r="W54" t="s">
+    <row r="55">
+      <c r="G55" t="s">
+        <v>286</v>
+      </c>
+      <c r="X55" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="55">
-      <c r="F55" t="s">
-        <v>286</v>
-      </c>
-      <c r="W55" t="s">
+    <row r="56">
+      <c r="G56" t="s">
+        <v>287</v>
+      </c>
+      <c r="X56" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="56">
-      <c r="F56" t="s">
-        <v>287</v>
-      </c>
-      <c r="W56" t="s">
+    <row r="57">
+      <c r="G57" t="s">
+        <v>296</v>
+      </c>
+      <c r="X57" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="57">
-      <c r="F57" t="s">
-        <v>296</v>
-      </c>
-      <c r="W57" t="s">
+    <row r="58">
+      <c r="G58" t="s">
+        <v>305</v>
+      </c>
+      <c r="X58" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58">
-      <c r="F58" t="s">
-        <v>305</v>
-      </c>
-      <c r="W58" t="s">
+    <row r="59">
+      <c r="G59" t="s">
+        <v>330</v>
+      </c>
+      <c r="X59" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="59">
-      <c r="F59" t="s">
-        <v>330</v>
-      </c>
-      <c r="W59" t="s">
+    <row r="60">
+      <c r="G60" t="s">
+        <v>302</v>
+      </c>
+      <c r="X60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="60">
-      <c r="F60" t="s">
-        <v>302</v>
-      </c>
-      <c r="W60" t="s">
+    <row r="61">
+      <c r="G61" t="s">
+        <v>303</v>
+      </c>
+      <c r="X61" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="61">
-      <c r="F61" t="s">
-        <v>303</v>
-      </c>
-      <c r="W61" t="s">
+    <row r="62">
+      <c r="G62" t="s">
+        <v>362</v>
+      </c>
+      <c r="X62" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="62">
-      <c r="F62" t="s">
-        <v>362</v>
-      </c>
-      <c r="W62" t="s">
+    <row r="63">
+      <c r="G63" t="s">
+        <v>363</v>
+      </c>
+      <c r="X63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63">
-      <c r="F63" t="s">
-        <v>363</v>
-      </c>
-      <c r="W63" t="s">
+    <row r="64">
+      <c r="G64" t="s">
+        <v>338</v>
+      </c>
+      <c r="X64" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="64">
-      <c r="F64" t="s">
-        <v>338</v>
-      </c>
-      <c r="W64" t="s">
+    <row r="65">
+      <c r="G65" t="s">
+        <v>306</v>
+      </c>
+      <c r="X65" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="65">
-      <c r="F65" t="s">
-        <v>306</v>
-      </c>
-      <c r="W65" t="s">
+    <row r="66">
+      <c r="G66" t="s">
+        <v>262</v>
+      </c>
+      <c r="X66" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="66">
-      <c r="F66" t="s">
-        <v>262</v>
-      </c>
-      <c r="W66" t="s">
+    <row r="67">
+      <c r="G67" t="s">
+        <v>346</v>
+      </c>
+      <c r="X67" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="67">
-      <c r="F67" t="s">
-        <v>346</v>
-      </c>
-      <c r="W67" t="s">
+    <row r="68">
+      <c r="G68" t="s">
+        <v>307</v>
+      </c>
+      <c r="X68" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="68">
-      <c r="F68" t="s">
-        <v>307</v>
-      </c>
-      <c r="W68" t="s">
+    <row r="69">
+      <c r="G69" t="s">
+        <v>403</v>
+      </c>
+      <c r="X69" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="69">
-      <c r="F69" t="s">
-        <v>403</v>
-      </c>
-      <c r="W69" t="s">
+    <row r="70">
+      <c r="G70" t="s">
+        <v>297</v>
+      </c>
+      <c r="X70" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="s">
-        <v>297</v>
-      </c>
-      <c r="W70" t="s">
+    <row r="71">
+      <c r="G71" t="s">
+        <v>404</v>
+      </c>
+      <c r="X71" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="s">
-        <v>404</v>
-      </c>
-      <c r="W71" t="s">
+    <row r="72">
+      <c r="G72" t="s">
+        <v>255</v>
+      </c>
+      <c r="X72" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="s">
-        <v>255</v>
-      </c>
-      <c r="W72" t="s">
+    <row r="73">
+      <c r="G73" t="s">
+        <v>337</v>
+      </c>
+      <c r="X73" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="73">
-      <c r="F73" t="s">
-        <v>337</v>
-      </c>
-      <c r="W73" t="s">
+    <row r="74">
+      <c r="G74" t="s">
+        <v>273</v>
+      </c>
+      <c r="X74" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="74">
-      <c r="F74" t="s">
-        <v>273</v>
-      </c>
-      <c r="W74" t="s">
+    <row r="75">
+      <c r="G75" t="s">
+        <v>279</v>
+      </c>
+      <c r="X75" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="75">
-      <c r="F75" t="s">
-        <v>279</v>
-      </c>
-      <c r="W75" t="s">
+    <row r="76">
+      <c r="G76" t="s">
+        <v>284</v>
+      </c>
+      <c r="X76" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="76">
-      <c r="F76" t="s">
-        <v>284</v>
-      </c>
-      <c r="W76" t="s">
+    <row r="77">
+      <c r="G77" t="s">
+        <v>422</v>
+      </c>
+      <c r="X77" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77">
-      <c r="F77" t="s">
-        <v>422</v>
-      </c>
-      <c r="W77" t="s">
+    <row r="78">
+      <c r="G78" t="s">
+        <v>325</v>
+      </c>
+      <c r="X78" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="78">
-      <c r="F78" t="s">
-        <v>325</v>
-      </c>
-      <c r="W78" t="s">
+    <row r="79">
+      <c r="G79" t="s">
+        <v>263</v>
+      </c>
+      <c r="X79" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="79">
-      <c r="F79" t="s">
-        <v>263</v>
-      </c>
-      <c r="W79" t="s">
+    <row r="80">
+      <c r="G80" t="s">
+        <v>274</v>
+      </c>
+      <c r="X80" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="G81" t="s">
+        <v>280</v>
+      </c>
+      <c r="X81" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="80">
-      <c r="F80" t="s">
-        <v>274</v>
-      </c>
-      <c r="W80" t="s">
+    <row r="82">
+      <c r="G82" t="s">
+        <v>269</v>
+      </c>
+      <c r="X82" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="81">
-      <c r="F81" t="s">
-        <v>280</v>
-      </c>
-      <c r="W81" t="s">
+    <row r="83">
+      <c r="G83" t="s">
+        <v>264</v>
+      </c>
+      <c r="X83" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="82">
-      <c r="F82" t="s">
-        <v>269</v>
-      </c>
-      <c r="W82" t="s">
+    <row r="84">
+      <c r="G84" t="s">
+        <v>281</v>
+      </c>
+      <c r="X84" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="83">
-      <c r="F83" t="s">
-        <v>264</v>
-      </c>
-      <c r="W83" t="s">
+    <row r="85">
+      <c r="G85" t="s">
+        <v>265</v>
+      </c>
+      <c r="X85" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="84">
-      <c r="F84" t="s">
-        <v>281</v>
-      </c>
-      <c r="W84" t="s">
+    <row r="86">
+      <c r="G86" t="s">
+        <v>266</v>
+      </c>
+      <c r="X86" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="85">
-      <c r="F85" t="s">
-        <v>265</v>
-      </c>
-      <c r="W85" t="s">
+    <row r="87">
+      <c r="G87" t="s">
+        <v>298</v>
+      </c>
+      <c r="X87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="86">
-      <c r="F86" t="s">
-        <v>266</v>
-      </c>
-      <c r="W86" t="s">
+    <row r="88">
+      <c r="G88" t="s">
+        <v>304</v>
+      </c>
+      <c r="X88" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="87">
-      <c r="F87" t="s">
-        <v>298</v>
-      </c>
-      <c r="W87" t="s">
+    <row r="89">
+      <c r="G89" t="s">
+        <v>288</v>
+      </c>
+      <c r="X89" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="88">
-      <c r="F88" t="s">
-        <v>304</v>
-      </c>
-      <c r="W88" t="s">
+    <row r="90">
+      <c r="G90" t="s">
+        <v>333</v>
+      </c>
+      <c r="X90" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89">
-      <c r="F89" t="s">
-        <v>288</v>
-      </c>
-      <c r="W89" t="s">
+    <row r="91">
+      <c r="G91" t="s">
+        <v>270</v>
+      </c>
+      <c r="X91" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="90">
-      <c r="F90" t="s">
-        <v>333</v>
-      </c>
-      <c r="W90" t="s">
+    <row r="92">
+      <c r="G92" t="s">
+        <v>271</v>
+      </c>
+      <c r="X92" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="91">
-      <c r="F91" t="s">
-        <v>270</v>
-      </c>
-      <c r="W91" t="s">
+    <row r="93">
+      <c r="X93" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="92">
-      <c r="F92" t="s">
-        <v>271</v>
-      </c>
-      <c r="W92" t="s">
+    <row r="94">
+      <c r="X94" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="93">
-      <c r="W93" t="s">
+    <row r="95">
+      <c r="X95" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="94">
-      <c r="W94" t="s">
+    <row r="96">
+      <c r="X96" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="95">
-      <c r="W95" t="s">
+    <row r="97">
+      <c r="X97" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="96">
-      <c r="W96" t="s">
+    <row r="98">
+      <c r="X98" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="97">
-      <c r="W97" t="s">
+    <row r="99">
+      <c r="X99" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="98">
-      <c r="W98" t="s">
+    <row r="100">
+      <c r="X100" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="99">
-      <c r="W99" t="s">
+    <row r="101">
+      <c r="X101" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="100">
-      <c r="W100" t="s">
+    <row r="102">
+      <c r="X102" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="101">
-      <c r="W101" t="s">
+    <row r="103">
+      <c r="X103" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="102">
-      <c r="W102" t="s">
+    <row r="104">
+      <c r="X104" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="103">
-      <c r="W103" t="s">
+    <row r="105">
+      <c r="X105" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="104">
-      <c r="W104" t="s">
+    <row r="106">
+      <c r="X106" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="105">
-      <c r="W105" t="s">
+    <row r="107">
+      <c r="X107" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="106">
-      <c r="W106" t="s">
+    <row r="108">
+      <c r="X108" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="107">
-      <c r="W107" t="s">
+    <row r="109">
+      <c r="X109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="108">
-      <c r="W108" t="s">
+    <row r="110">
+      <c r="X110" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="109">
-      <c r="W109" t="s">
+    <row r="111">
+      <c r="X111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="110">
-      <c r="W110" t="s">
+    <row r="112">
+      <c r="X112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111">
-      <c r="W111" t="s">
+    <row r="113">
+      <c r="X113" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="112">
-      <c r="W112" t="s">
+    <row r="114">
+      <c r="X114" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="113">
-      <c r="W113" t="s">
+    <row r="115">
+      <c r="X115" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="114">
-      <c r="W114" t="s">
+    <row r="116">
+      <c r="X116" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="115">
-      <c r="W115" t="s">
+    <row r="117">
+      <c r="X117" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="116">
-      <c r="W116" t="s">
+    <row r="118">
+      <c r="X118" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="117">
-      <c r="W117" t="s">
+    <row r="119">
+      <c r="X119" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="118">
-      <c r="W118" t="s">
+    <row r="120">
+      <c r="X120" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="119">
-      <c r="W119" t="s">
+    <row r="121">
+      <c r="X121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="120">
-      <c r="W120" t="s">
+    <row r="122">
+      <c r="X122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="121">
-      <c r="W121" t="s">
+    <row r="123">
+      <c r="X123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="122">
-      <c r="W122" t="s">
+    <row r="124">
+      <c r="X124" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15048" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15566" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1730,13 +1730,34 @@
   <si>
     <t>assertElementsPresent(prefix)</t>
   </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="484" x14ac:knownFonts="1">
+  <fonts count="500" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4783,8 +4804,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="841">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9546,8 +9668,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="871">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -9584,6 +9859,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18334,7 +18891,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="510">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19834,52 +20391,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="467" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="816" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="819" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="470" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="822" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="471" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="825" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="473" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="828" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="474" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="831" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="834" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="837" borderId="870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="479" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="480" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="840" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="825" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20204,7 +20809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20634,6 +21239,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>553</v>
+      </c>
       <c r="G6" t="s">
         <v>381</v>
       </c>
@@ -20756,7 +21364,7 @@
         <v>321</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>556</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -20809,7 +21417,7 @@
         <v>322</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -20850,7 +21458,7 @@
         <v>502</v>
       </c>
       <c r="K10" t="s">
-        <v>383</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -20888,7 +21496,7 @@
         <v>315</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>557</v>
       </c>
       <c r="M11" t="s">
         <v>525</v>
@@ -20923,7 +21531,7 @@
         <v>316</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="M12" t="s">
         <v>492</v>
@@ -20958,7 +21566,7 @@
         <v>317</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>526</v>
@@ -20993,7 +21601,7 @@
         <v>318</v>
       </c>
       <c r="K14" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -21025,7 +21633,7 @@
         <v>258</v>
       </c>
       <c r="K15" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -21057,7 +21665,7 @@
         <v>310</v>
       </c>
       <c r="K16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M16" t="s">
         <v>42</v>
@@ -21089,7 +21697,7 @@
         <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s">
         <v>552</v>
@@ -21112,7 +21720,7 @@
         <v>88</v>
       </c>
       <c r="K18" t="s">
-        <v>373</v>
+        <v>507</v>
       </c>
       <c r="X18" t="s">
         <v>97</v>
@@ -21132,7 +21740,7 @@
         <v>289</v>
       </c>
       <c r="K19" t="s">
-        <v>521</v>
+        <v>81</v>
       </c>
       <c r="X19" t="s">
         <v>98</v>
@@ -21152,7 +21760,7 @@
         <v>290</v>
       </c>
       <c r="K20" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="X20" t="s">
         <v>99</v>
@@ -21172,7 +21780,7 @@
         <v>291</v>
       </c>
       <c r="K21" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="X21" t="s">
         <v>100</v>
@@ -21192,7 +21800,7 @@
         <v>292</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>521</v>
       </c>
       <c r="X22" t="s">
         <v>530</v>
@@ -21209,7 +21817,7 @@
         <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>491</v>
+        <v>43</v>
       </c>
       <c r="X23" t="s">
         <v>102</v>
@@ -21226,7 +21834,7 @@
         <v>272</v>
       </c>
       <c r="K24" t="s">
-        <v>44</v>
+        <v>385</v>
       </c>
       <c r="X24" t="s">
         <v>103</v>
@@ -21243,7 +21851,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="X25" t="s">
         <v>104</v>
@@ -21259,6 +21867,9 @@
       <c r="G26" t="s">
         <v>275</v>
       </c>
+      <c r="K26" t="s">
+        <v>491</v>
+      </c>
       <c r="X26" t="s">
         <v>105</v>
       </c>
@@ -21273,6 +21884,9 @@
       <c r="G27" t="s">
         <v>259</v>
       </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
       <c r="X27" t="s">
         <v>106</v>
       </c>
@@ -21287,6 +21901,9 @@
       <c r="G28" t="s">
         <v>276</v>
       </c>
+      <c r="K28" t="s">
+        <v>45</v>
+      </c>
       <c r="X28" t="s">
         <v>320</v>
       </c>
@@ -21343,7 +21960,7 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>253</v>
+        <v>554</v>
       </c>
       <c r="X33" t="s">
         <v>111</v>
@@ -21354,7 +21971,7 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="X34" t="s">
         <v>112</v>
@@ -21365,7 +21982,7 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="X35" t="s">
         <v>203</v>
@@ -21376,7 +21993,7 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="X36" t="s">
         <v>113</v>
@@ -21387,7 +22004,7 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>301</v>
+        <v>254</v>
       </c>
       <c r="X37" t="s">
         <v>331</v>
@@ -21398,7 +22015,7 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="X38" t="s">
         <v>468</v>
@@ -21406,7 +22023,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="X39" t="s">
         <v>386</v>
@@ -21414,7 +22031,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s">
         <v>114</v>
@@ -21422,7 +22039,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="X41" t="s">
         <v>115</v>
@@ -21430,7 +22047,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="X42" t="s">
         <v>116</v>
@@ -21438,7 +22055,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X43" t="s">
         <v>117</v>
@@ -21446,7 +22063,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="X44" t="s">
         <v>118</v>
@@ -21454,7 +22071,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X45" t="s">
         <v>119</v>
@@ -21462,7 +22079,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>204</v>
+        <v>335</v>
       </c>
       <c r="X46" t="s">
         <v>488</v>
@@ -21470,7 +22087,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="X47" t="s">
         <v>206</v>
@@ -21478,7 +22095,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="X48" t="s">
         <v>75</v>
@@ -21486,7 +22103,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="X49" t="s">
         <v>120</v>
@@ -21494,7 +22111,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="X50" t="s">
         <v>121</v>
@@ -21502,7 +22119,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>349</v>
+        <v>295</v>
       </c>
       <c r="X51" t="s">
         <v>122</v>
@@ -21510,7 +22127,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="X52" t="s">
         <v>531</v>
@@ -21518,7 +22135,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="X53" t="s">
         <v>515</v>
@@ -21526,7 +22143,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="X54" t="s">
         <v>123</v>
@@ -21534,7 +22151,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="X55" t="s">
         <v>339</v>
@@ -21542,7 +22159,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s">
         <v>510</v>
@@ -21550,7 +22167,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="X57" t="s">
         <v>124</v>
@@ -21558,7 +22175,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="X58" t="s">
         <v>125</v>
@@ -21566,7 +22183,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
       <c r="X59" t="s">
         <v>126</v>
@@ -21574,7 +22191,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="X60" t="s">
         <v>127</v>
@@ -21582,7 +22199,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X61" t="s">
         <v>128</v>
@@ -21590,7 +22207,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>362</v>
+        <v>303</v>
       </c>
       <c r="X62" t="s">
         <v>129</v>
@@ -21598,7 +22215,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="X63" t="s">
         <v>130</v>
@@ -21606,7 +22223,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="X64" t="s">
         <v>487</v>
@@ -21614,7 +22231,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X65" t="s">
         <v>532</v>
@@ -21622,7 +22239,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="X66" t="s">
         <v>207</v>
@@ -21630,7 +22247,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="X67" t="s">
         <v>382</v>
@@ -21638,7 +22255,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="X68" t="s">
         <v>493</v>
@@ -21646,7 +22263,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="X69" t="s">
         <v>131</v>
@@ -21654,7 +22271,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>297</v>
+        <v>403</v>
       </c>
       <c r="X70" t="s">
         <v>132</v>
@@ -21662,7 +22279,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>404</v>
+        <v>297</v>
       </c>
       <c r="X71" t="s">
         <v>133</v>
@@ -21670,7 +22287,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>255</v>
+        <v>404</v>
       </c>
       <c r="X72" t="s">
         <v>134</v>
@@ -21678,7 +22295,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="X73" t="s">
         <v>190</v>
@@ -21686,7 +22303,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>273</v>
+        <v>555</v>
       </c>
       <c r="X74" t="s">
         <v>191</v>
@@ -21694,7 +22311,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>279</v>
+        <v>337</v>
       </c>
       <c r="X75" t="s">
         <v>505</v>
@@ -21702,7 +22319,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="X76" t="s">
         <v>520</v>
@@ -21710,7 +22327,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
       <c r="X77" t="s">
         <v>135</v>
@@ -21718,7 +22335,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="X78" t="s">
         <v>136</v>
@@ -21726,7 +22343,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="X79" t="s">
         <v>137</v>
@@ -21734,7 +22351,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="X80" t="s">
         <v>546</v>
@@ -21742,7 +22359,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="X81" t="s">
         <v>138</v>
@@ -21750,7 +22367,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="X82" t="s">
         <v>139</v>
@@ -21758,7 +22375,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="X83" t="s">
         <v>192</v>
@@ -21766,7 +22383,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="X84" t="s">
         <v>533</v>
@@ -21774,7 +22391,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="X85" t="s">
         <v>193</v>
@@ -21782,7 +22399,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="X86" t="s">
         <v>504</v>
@@ -21790,7 +22407,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="X87" t="s">
         <v>194</v>
@@ -21798,7 +22415,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="X88" t="s">
         <v>195</v>
@@ -21806,7 +22423,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="X89" t="s">
         <v>208</v>
@@ -21814,7 +22431,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="X90" t="s">
         <v>140</v>
@@ -21822,7 +22439,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="X91" t="s">
         <v>196</v>
@@ -21830,18 +22447,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="X92" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>270</v>
+      </c>
       <c r="X93" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>271</v>
+      </c>
       <c r="X94" t="s">
         <v>197</v>
       </c>
@@ -21873,126 +22496,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>142</v>
+        <v>559</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>489</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>156</v>
+        <v>489</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>46</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>160</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15566" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16606" uniqueCount="562">
   <si>
     <t>description</t>
   </si>
@@ -1751,13 +1751,19 @@
   <si>
     <t>saveValues(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="500" x14ac:knownFonts="1">
+  <fonts count="532" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4905,8 +4911,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="928">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9821,8 +10029,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -9859,6 +10407,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -18891,7 +20003,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20439,52 +21551,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="487" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="489" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="490" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="499" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="500" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="501" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="502" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="503" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="504" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="505" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="506" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="507" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="508" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="509" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="511" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="512" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="513" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="515" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -20809,7 +22017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22501,126 +23709,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>142</v>
+        <v>560</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>143</v>
+        <v>561</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>489</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>157</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -29,28 +29,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16606" uniqueCount="562">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17662" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1757,13 +1758,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="532" x14ac:knownFonts="1">
+  <fonts count="564" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5113,8 +5135,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="928">
+  <fills count="988">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10369,8 +10593,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -10407,6 +10971,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -20003,7 +21131,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21647,52 +22775,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="897" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="900" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="900" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="517" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="903" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="903" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="909" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="909" fontId="520" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="521" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="912" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="912" fontId="522" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="915" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="915" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="918" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="918" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="921" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="921" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="924" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="924" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="927" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="927" fontId="531" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="930" fontId="532" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="533" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="933" fontId="534" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="936" fontId="535" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="939" fontId="536" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="537" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="942" fontId="538" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="539" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="945" fontId="540" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="948" fontId="541" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="542" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="951" fontId="543" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="544" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="954" fontId="545" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="939" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="547" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="960" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="963" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="966" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="969" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="975" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="978" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="563" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -22017,7 +23241,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -22069,51 +23293,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>562</v>
+      </c>
+      <c r="O1" t="s">
         <v>522</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>189</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>232</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>389</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>405</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>406</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>350</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>390</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>52</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>407</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -22158,51 +23385,54 @@
         <v>459</v>
       </c>
       <c r="N2" t="s">
+        <v>563</v>
+      </c>
+      <c r="O2" t="s">
         <v>527</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>410</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>423</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>246</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>210</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>391</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>412</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>413</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>374</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>400</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>89</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>164</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>169</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>176</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>425</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>541</v>
       </c>
     </row>
@@ -22247,45 +23477,48 @@
         <v>84</v>
       </c>
       <c r="N3" t="s">
+        <v>564</v>
+      </c>
+      <c r="O3" t="s">
         <v>528</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>424</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>233</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>211</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>392</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>414</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>375</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>401</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>165</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>170</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>357</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>177</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -22327,45 +23560,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>565</v>
+      </c>
+      <c r="O4" t="s">
         <v>529</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>234</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>212</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>393</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>415</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>351</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>402</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>347</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>166</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>171</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>417</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>222</v>
       </c>
     </row>
@@ -22400,40 +23636,43 @@
       <c r="M5" t="s">
         <v>85</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>566</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>235</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>213</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>394</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>416</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>352</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>348</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>167</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>172</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>418</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>223</v>
       </c>
     </row>
@@ -22465,37 +23704,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>236</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>384</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>395</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>354</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>494</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>173</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>419</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>224</v>
       </c>
     </row>
@@ -22521,37 +23763,40 @@
       <c r="M7" t="s">
         <v>308</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>237</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>411</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>396</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>353</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>92</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>495</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>174</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>420</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -22577,34 +23822,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>460</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>238</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>397</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>355</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>93</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>168</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>175</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>421</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>226</v>
       </c>
     </row>
@@ -22630,25 +23875,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>461</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>239</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>398</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>356</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>202</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>182</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>227</v>
       </c>
     </row>
@@ -22671,22 +23916,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>462</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>240</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>399</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>250</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>183</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>534</v>
       </c>
     </row>
@@ -22709,19 +23954,19 @@
       <c r="M11" t="s">
         <v>525</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>463</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>241</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>251</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>252</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>542</v>
       </c>
     </row>
@@ -22744,19 +23989,19 @@
       <c r="M12" t="s">
         <v>492</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>464</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>242</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>94</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>184</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>543</v>
       </c>
     </row>
@@ -22779,25 +24024,25 @@
       <c r="M13" t="s">
         <v>526</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>465</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>247</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>319</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>185</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>562</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -22814,25 +24059,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>466</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>243</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>95</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>186</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
         <v>57</v>
@@ -22846,25 +24091,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>550</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>244</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>96</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>187</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
         <v>378</v>
@@ -22878,25 +24123,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>551</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>245</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>73</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>188</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>232</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>379</v>
@@ -22907,19 +24152,19 @@
       <c r="K17" t="s">
         <v>80</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>552</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>516</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>232</v>
       </c>
       <c r="E18" t="s">
         <v>408</v>
@@ -22930,16 +24175,16 @@
       <c r="K18" t="s">
         <v>507</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>51</v>
       </c>
       <c r="E19" t="s">
         <v>58</v>
@@ -22950,16 +24195,16 @@
       <c r="K19" t="s">
         <v>81</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>98</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E20" t="s">
         <v>59</v>
@@ -22970,16 +24215,16 @@
       <c r="K20" t="s">
         <v>82</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>99</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E21" t="s">
         <v>249</v>
@@ -22990,16 +24235,16 @@
       <c r="K21" t="s">
         <v>373</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>100</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="E22" t="s">
         <v>60</v>
@@ -23010,13 +24255,13 @@
       <c r="K22" t="s">
         <v>521</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s">
         <v>314</v>
@@ -23027,13 +24272,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>390</v>
       </c>
       <c r="E24" t="s">
         <v>61</v>
@@ -23044,13 +24289,13 @@
       <c r="K24" t="s">
         <v>385</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
         <v>498</v>
@@ -23061,13 +24306,13 @@
       <c r="K25" t="s">
         <v>83</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
         <v>218</v>
@@ -23078,13 +24323,13 @@
       <c r="K26" t="s">
         <v>491</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
         <v>219</v>
@@ -23095,13 +24340,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>407</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>518</v>
@@ -23112,13 +24357,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>220</v>
+        <v>407</v>
       </c>
       <c r="E29" t="s">
         <v>519</v>
@@ -23126,18 +24371,21 @@
       <c r="G29" t="s">
         <v>277</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>220</v>
+      </c>
       <c r="E30" t="s">
         <v>409</v>
       </c>
       <c r="G30" t="s">
         <v>209</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>108</v>
       </c>
     </row>
@@ -23148,7 +24396,7 @@
       <c r="G31" t="s">
         <v>268</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -23159,7 +24407,7 @@
       <c r="G32" t="s">
         <v>278</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>110</v>
       </c>
     </row>
@@ -23170,7 +24418,7 @@
       <c r="G33" t="s">
         <v>554</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23181,7 +24429,7 @@
       <c r="G34" t="s">
         <v>253</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>112</v>
       </c>
     </row>
@@ -23192,7 +24440,7 @@
       <c r="G35" t="s">
         <v>323</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>203</v>
       </c>
     </row>
@@ -23203,7 +24451,7 @@
       <c r="G36" t="s">
         <v>300</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>113</v>
       </c>
     </row>
@@ -23214,7 +24462,7 @@
       <c r="G37" t="s">
         <v>254</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>331</v>
       </c>
     </row>
@@ -23225,7 +24473,7 @@
       <c r="G38" t="s">
         <v>301</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>468</v>
       </c>
     </row>
@@ -23233,7 +24481,7 @@
       <c r="G39" t="s">
         <v>260</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>386</v>
       </c>
     </row>
@@ -23241,7 +24489,7 @@
       <c r="G40" t="s">
         <v>76</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>114</v>
       </c>
     </row>
@@ -23249,7 +24497,7 @@
       <c r="G41" t="s">
         <v>205</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>115</v>
       </c>
     </row>
@@ -23257,7 +24505,7 @@
       <c r="G42" t="s">
         <v>282</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>116</v>
       </c>
     </row>
@@ -23265,7 +24513,7 @@
       <c r="G43" t="s">
         <v>293</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>117</v>
       </c>
     </row>
@@ -23273,7 +24521,7 @@
       <c r="G44" t="s">
         <v>294</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23281,7 +24529,7 @@
       <c r="G45" t="s">
         <v>336</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -23289,7 +24537,7 @@
       <c r="G46" t="s">
         <v>335</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>488</v>
       </c>
     </row>
@@ -23297,7 +24545,7 @@
       <c r="G47" t="s">
         <v>204</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>206</v>
       </c>
     </row>
@@ -23305,7 +24553,7 @@
       <c r="G48" t="s">
         <v>313</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>75</v>
       </c>
     </row>
@@ -23313,7 +24561,7 @@
       <c r="G49" t="s">
         <v>332</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23321,7 +24569,7 @@
       <c r="G50" t="s">
         <v>361</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>121</v>
       </c>
     </row>
@@ -23329,7 +24577,7 @@
       <c r="G51" t="s">
         <v>295</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>122</v>
       </c>
     </row>
@@ -23337,7 +24585,7 @@
       <c r="G52" t="s">
         <v>349</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>531</v>
       </c>
     </row>
@@ -23345,7 +24593,7 @@
       <c r="G53" t="s">
         <v>324</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>515</v>
       </c>
     </row>
@@ -23353,7 +24601,7 @@
       <c r="G54" t="s">
         <v>261</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>123</v>
       </c>
     </row>
@@ -23361,7 +24609,7 @@
       <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>339</v>
       </c>
     </row>
@@ -23369,7 +24617,7 @@
       <c r="G56" t="s">
         <v>286</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>510</v>
       </c>
     </row>
@@ -23377,7 +24625,7 @@
       <c r="G57" t="s">
         <v>287</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>124</v>
       </c>
     </row>
@@ -23385,7 +24633,7 @@
       <c r="G58" t="s">
         <v>296</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>125</v>
       </c>
     </row>
@@ -23393,7 +24641,7 @@
       <c r="G59" t="s">
         <v>305</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>126</v>
       </c>
     </row>
@@ -23401,7 +24649,7 @@
       <c r="G60" t="s">
         <v>330</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>127</v>
       </c>
     </row>
@@ -23409,7 +24657,7 @@
       <c r="G61" t="s">
         <v>302</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23417,7 +24665,7 @@
       <c r="G62" t="s">
         <v>303</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23425,7 +24673,7 @@
       <c r="G63" t="s">
         <v>362</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23433,7 +24681,7 @@
       <c r="G64" t="s">
         <v>363</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>487</v>
       </c>
     </row>
@@ -23441,7 +24689,7 @@
       <c r="G65" t="s">
         <v>338</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>532</v>
       </c>
     </row>
@@ -23449,7 +24697,7 @@
       <c r="G66" t="s">
         <v>306</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>207</v>
       </c>
     </row>
@@ -23457,7 +24705,7 @@
       <c r="G67" t="s">
         <v>262</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>382</v>
       </c>
     </row>
@@ -23465,7 +24713,7 @@
       <c r="G68" t="s">
         <v>346</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>493</v>
       </c>
     </row>
@@ -23473,7 +24721,7 @@
       <c r="G69" t="s">
         <v>307</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23481,7 +24729,7 @@
       <c r="G70" t="s">
         <v>403</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -23489,7 +24737,7 @@
       <c r="G71" t="s">
         <v>297</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>133</v>
       </c>
     </row>
@@ -23497,7 +24745,7 @@
       <c r="G72" t="s">
         <v>404</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>134</v>
       </c>
     </row>
@@ -23505,7 +24753,7 @@
       <c r="G73" t="s">
         <v>255</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>190</v>
       </c>
     </row>
@@ -23513,7 +24761,7 @@
       <c r="G74" t="s">
         <v>555</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>191</v>
       </c>
     </row>
@@ -23521,7 +24769,7 @@
       <c r="G75" t="s">
         <v>337</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>505</v>
       </c>
     </row>
@@ -23529,7 +24777,7 @@
       <c r="G76" t="s">
         <v>273</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>520</v>
       </c>
     </row>
@@ -23537,7 +24785,7 @@
       <c r="G77" t="s">
         <v>279</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>135</v>
       </c>
     </row>
@@ -23545,7 +24793,7 @@
       <c r="G78" t="s">
         <v>284</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>136</v>
       </c>
     </row>
@@ -23553,7 +24801,7 @@
       <c r="G79" t="s">
         <v>422</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>137</v>
       </c>
     </row>
@@ -23561,7 +24809,7 @@
       <c r="G80" t="s">
         <v>325</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>546</v>
       </c>
     </row>
@@ -23569,7 +24817,7 @@
       <c r="G81" t="s">
         <v>263</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>138</v>
       </c>
     </row>
@@ -23577,7 +24825,7 @@
       <c r="G82" t="s">
         <v>274</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>139</v>
       </c>
     </row>
@@ -23585,7 +24833,7 @@
       <c r="G83" t="s">
         <v>280</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>192</v>
       </c>
     </row>
@@ -23593,7 +24841,7 @@
       <c r="G84" t="s">
         <v>269</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>533</v>
       </c>
     </row>
@@ -23601,7 +24849,7 @@
       <c r="G85" t="s">
         <v>264</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>193</v>
       </c>
     </row>
@@ -23609,7 +24857,7 @@
       <c r="G86" t="s">
         <v>281</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>504</v>
       </c>
     </row>
@@ -23617,7 +24865,7 @@
       <c r="G87" t="s">
         <v>265</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>194</v>
       </c>
     </row>
@@ -23625,7 +24873,7 @@
       <c r="G88" t="s">
         <v>266</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>195</v>
       </c>
     </row>
@@ -23633,7 +24881,7 @@
       <c r="G89" t="s">
         <v>298</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>208</v>
       </c>
     </row>
@@ -23641,7 +24889,7 @@
       <c r="G90" t="s">
         <v>304</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>140</v>
       </c>
     </row>
@@ -23649,7 +24897,7 @@
       <c r="G91" t="s">
         <v>288</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>196</v>
       </c>
     </row>
@@ -23657,7 +24905,7 @@
       <c r="G92" t="s">
         <v>333</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>484</v>
       </c>
     </row>
@@ -23665,7 +24913,7 @@
       <c r="G93" t="s">
         <v>270</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>486</v>
       </c>
     </row>
@@ -23673,172 +24921,172 @@
       <c r="G94" t="s">
         <v>271</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -26,7 +26,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -51,7 +51,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17662" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18725" uniqueCount="573">
   <si>
     <t>description</t>
   </si>
@@ -1779,13 +1779,25 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="564" x14ac:knownFonts="1">
+  <fonts count="596" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5337,8 +5349,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="988">
+  <fills count="1048">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10933,8 +11147,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -10971,6 +11525,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -21131,7 +22249,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22871,52 +23989,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="957" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="960" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="549" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="960" fontId="548" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="549" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="963" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="963" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="966" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="966" fontId="551" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="969" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="969" fontId="552" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="553" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="972" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="972" fontId="554" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="556" fillId="975" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="557" fillId="978" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="558" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="559" fillId="981" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="560" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="561" fillId="984" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="562" fillId="969" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="563" fillId="987" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="555" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="975" fontId="556" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="978" fontId="557" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="558" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="981" fontId="559" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="560" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="984" fontId="561" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="969" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="990" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="565" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="993" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="996" fontId="567" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="999" fontId="568" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="569" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="570" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="1005" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="1008" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="1011" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="999" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="579" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="1020" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1023" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1026" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="1029" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1035" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1038" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23637,7 +24851,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -23705,7 +24919,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -23764,7 +24978,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -23822,6 +25036,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>566</v>
+      </c>
       <c r="Q8" t="s">
         <v>460</v>
       </c>
@@ -23875,6 +25092,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>567</v>
+      </c>
       <c r="Q9" t="s">
         <v>461</v>
       </c>
@@ -23916,6 +25136,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>568</v>
+      </c>
       <c r="Q10" t="s">
         <v>462</v>
       </c>
@@ -24304,7 +25527,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>
@@ -24321,7 +25544,7 @@
         <v>275</v>
       </c>
       <c r="K26" t="s">
-        <v>491</v>
+        <v>83</v>
       </c>
       <c r="Y26" t="s">
         <v>105</v>
@@ -24338,7 +25561,7 @@
         <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>491</v>
       </c>
       <c r="Y27" t="s">
         <v>106</v>
@@ -24355,7 +25578,7 @@
         <v>276</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>320</v>
@@ -24370,6 +25593,9 @@
       </c>
       <c r="G29" t="s">
         <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>107</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -50,8 +50,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18725" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19260" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1791,13 +1791,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="596" x14ac:knownFonts="1">
+  <fonts count="612" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5551,8 +5563,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1048">
+  <fills count="1078">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11487,8 +11600,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -11525,6 +11808,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -22249,7 +22814,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="622">
+  <cellXfs count="638">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24085,52 +24650,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="579" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="1020" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="581" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1020" fontId="580" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="581" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1023" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1023" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1026" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1026" fontId="583" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="1029" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1029" fontId="584" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="585" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="1032" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1032" fontId="586" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="588" fillId="1035" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="589" fillId="1038" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="590" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="591" fillId="1041" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="593" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="594" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="595" fillId="1047" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="587" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1035" fontId="588" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1038" fontId="589" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="590" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1041" fontId="591" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="592" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="593" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="595" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="611" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24661,7 +25274,7 @@
         <v>513</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>573</v>
       </c>
       <c r="E3" t="s">
         <v>508</v>
@@ -24744,7 +25357,7 @@
         <v>367</v>
       </c>
       <c r="D4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -24827,7 +25440,7 @@
         <v>368</v>
       </c>
       <c r="D5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E5" t="s">
         <v>509</v>
@@ -24851,7 +25464,7 @@
         <v>85</v>
       </c>
       <c r="N5" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -24897,6 +25510,9 @@
       <c r="B6" t="s">
         <v>369</v>
       </c>
+      <c r="D6" t="s">
+        <v>540</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -24919,7 +25535,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -24978,7 +25594,7 @@
         <v>308</v>
       </c>
       <c r="N7" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -25037,7 +25653,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q8" t="s">
         <v>460</v>
@@ -25093,7 +25709,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>567</v>
+        <v>576</v>
       </c>
       <c r="Q9" t="s">
         <v>461</v>
@@ -25137,7 +25753,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="Q10" t="s">
         <v>462</v>
@@ -25177,6 +25793,9 @@
       <c r="M11" t="s">
         <v>525</v>
       </c>
+      <c r="N11" t="s">
+        <v>567</v>
+      </c>
       <c r="Q11" t="s">
         <v>463</v>
       </c>
@@ -25212,6 +25831,9 @@
       <c r="M12" t="s">
         <v>492</v>
       </c>
+      <c r="N12" t="s">
+        <v>568</v>
+      </c>
       <c r="Q12" t="s">
         <v>464</v>
       </c>
@@ -25527,7 +26149,7 @@
         <v>74</v>
       </c>
       <c r="K25" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="Y25" t="s">
         <v>104</v>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,17 +18,17 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,12 +42,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19260" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19817" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1803,13 +1803,82 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="612" x14ac:knownFonts="1">
+  <fonts count="628" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5664,8 +5733,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1078">
+  <fills count="1105">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11770,8 +11940,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1127">
     <border>
       <left/>
       <right/>
@@ -22629,6 +22952,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -22814,7 +23463,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="654">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24698,52 +25347,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1047" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="1050" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="597" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1050" fontId="596" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="597" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1053" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1053" fontId="598" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1056" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1056" fontId="599" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="1059" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1059" fontId="600" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="601" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="1062" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1062" fontId="602" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="604" fillId="1065" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="605" fillId="1068" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="606" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="607" fillId="1071" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="608" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="609" fillId="1074" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="610" fillId="1059" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="611" fillId="1077" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="603" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1065" fontId="604" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1068" fontId="605" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="606" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1071" fontId="607" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="608" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1074" fontId="609" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1059" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="614" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="615" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="616" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="618" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="620" fillId="1095" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="621" fillId="1086" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="622" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="623" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="624" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="625" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="626" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25068,7 +25765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25449,10 +26146,13 @@
         <v>490</v>
       </c>
       <c r="G5" t="s">
-        <v>329</v>
+        <v>578</v>
       </c>
       <c r="H5" t="s">
         <v>506</v>
+      </c>
+      <c r="I5" t="s">
+        <v>583</v>
       </c>
       <c r="J5" t="s">
         <v>344</v>
@@ -25520,7 +26220,7 @@
         <v>553</v>
       </c>
       <c r="G6" t="s">
-        <v>381</v>
+        <v>329</v>
       </c>
       <c r="H6" t="s">
         <v>501</v>
@@ -25582,11 +26282,14 @@
         <v>217</v>
       </c>
       <c r="G7" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="H7" t="s">
         <v>497</v>
       </c>
+      <c r="J7" t="s">
+        <v>584</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -25627,7 +26330,7 @@
         <v>420</v>
       </c>
       <c r="AD7" t="s">
-        <v>225</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8">
@@ -25641,7 +26344,7 @@
         <v>311</v>
       </c>
       <c r="G8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H8" t="s">
         <v>321</v>
@@ -25683,7 +26386,7 @@
         <v>421</v>
       </c>
       <c r="AD8" t="s">
-        <v>226</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
@@ -25697,7 +26400,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="H9" t="s">
         <v>322</v>
@@ -25730,7 +26433,7 @@
         <v>182</v>
       </c>
       <c r="AD9" t="s">
-        <v>227</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10">
@@ -25741,7 +26444,7 @@
         <v>308</v>
       </c>
       <c r="G10" t="s">
-        <v>345</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
         <v>502</v>
@@ -25771,7 +26474,7 @@
         <v>183</v>
       </c>
       <c r="AD10" t="s">
-        <v>534</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
@@ -25782,7 +26485,7 @@
         <v>248</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
         <v>315</v>
@@ -25809,7 +26512,7 @@
         <v>252</v>
       </c>
       <c r="AD11" t="s">
-        <v>542</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12">
@@ -25820,7 +26523,7 @@
         <v>312</v>
       </c>
       <c r="G12" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="H12" t="s">
         <v>316</v>
@@ -25829,7 +26532,7 @@
         <v>383</v>
       </c>
       <c r="M12" t="s">
-        <v>492</v>
+        <v>585</v>
       </c>
       <c r="N12" t="s">
         <v>568</v>
@@ -25847,7 +26550,7 @@
         <v>184</v>
       </c>
       <c r="AD12" t="s">
-        <v>543</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
@@ -25858,7 +26561,7 @@
         <v>334</v>
       </c>
       <c r="G13" t="s">
-        <v>309</v>
+        <v>256</v>
       </c>
       <c r="H13" t="s">
         <v>317</v>
@@ -25867,7 +26570,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="Q13" t="s">
         <v>465</v>
@@ -25882,7 +26585,7 @@
         <v>185</v>
       </c>
       <c r="AD13" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
@@ -25893,7 +26596,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
       <c r="H14" t="s">
         <v>318</v>
@@ -25902,7 +26605,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>526</v>
       </c>
       <c r="Q14" t="s">
         <v>466</v>
@@ -25917,7 +26620,7 @@
         <v>186</v>
       </c>
       <c r="AD14" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15">
@@ -25928,13 +26631,13 @@
         <v>57</v>
       </c>
       <c r="G15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K15" t="s">
         <v>558</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>550</v>
@@ -25949,7 +26652,7 @@
         <v>187</v>
       </c>
       <c r="AD15" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16">
@@ -25960,13 +26663,13 @@
         <v>378</v>
       </c>
       <c r="G16" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
       <c r="K16" t="s">
         <v>79</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>586</v>
       </c>
       <c r="Q16" t="s">
         <v>551</v>
@@ -25981,7 +26684,7 @@
         <v>188</v>
       </c>
       <c r="AD16" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17">
@@ -25992,11 +26695,14 @@
         <v>379</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="K17" t="s">
         <v>80</v>
       </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
       <c r="Y17" t="s">
         <v>552</v>
       </c>
@@ -26004,7 +26710,7 @@
         <v>516</v>
       </c>
       <c r="AD17" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
@@ -26015,16 +26721,19 @@
         <v>408</v>
       </c>
       <c r="G18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s">
         <v>507</v>
       </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
       <c r="Y18" t="s">
         <v>97</v>
       </c>
       <c r="AD18" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
@@ -26035,7 +26744,7 @@
         <v>58</v>
       </c>
       <c r="G19" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -26044,7 +26753,7 @@
         <v>98</v>
       </c>
       <c r="AD19" t="s">
-        <v>228</v>
+        <v>544</v>
       </c>
     </row>
     <row r="20">
@@ -26055,7 +26764,7 @@
         <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K20" t="s">
         <v>82</v>
@@ -26064,7 +26773,7 @@
         <v>99</v>
       </c>
       <c r="AD20" t="s">
-        <v>229</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21">
@@ -26075,7 +26784,7 @@
         <v>249</v>
       </c>
       <c r="G21" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K21" t="s">
         <v>373</v>
@@ -26084,7 +26793,7 @@
         <v>100</v>
       </c>
       <c r="AD21" t="s">
-        <v>230</v>
+        <v>549</v>
       </c>
     </row>
     <row r="22">
@@ -26092,16 +26801,19 @@
         <v>406</v>
       </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>577</v>
       </c>
       <c r="G22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K22" t="s">
         <v>521</v>
       </c>
       <c r="Y22" t="s">
         <v>530</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="23">
@@ -26109,16 +26821,19 @@
         <v>350</v>
       </c>
       <c r="E23" t="s">
-        <v>314</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
       </c>
       <c r="Y23" t="s">
         <v>102</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="24">
@@ -26126,16 +26841,19 @@
         <v>390</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>314</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K24" t="s">
         <v>385</v>
       </c>
       <c r="Y24" t="s">
-        <v>103</v>
+        <v>587</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="25">
@@ -26143,16 +26861,19 @@
         <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>498</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="K25" t="s">
         <v>574</v>
       </c>
       <c r="Y25" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="26">
@@ -26160,16 +26881,19 @@
         <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>498</v>
       </c>
       <c r="G26" t="s">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="K26" t="s">
         <v>83</v>
       </c>
       <c r="Y26" t="s">
-        <v>105</v>
+        <v>104</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="27">
@@ -26177,16 +26901,19 @@
         <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
         <v>491</v>
       </c>
       <c r="Y27" t="s">
-        <v>106</v>
+        <v>105</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -26194,16 +26921,16 @@
         <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>518</v>
+        <v>219</v>
       </c>
       <c r="G28" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>320</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -26211,16 +26938,16 @@
         <v>407</v>
       </c>
       <c r="E29" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>107</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30">
@@ -26228,713 +26955,763 @@
         <v>220</v>
       </c>
       <c r="E30" t="s">
-        <v>409</v>
+        <v>519</v>
       </c>
       <c r="G30" t="s">
-        <v>209</v>
+        <v>277</v>
       </c>
       <c r="Y30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="E31" t="s">
-        <v>62</v>
+        <v>409</v>
       </c>
       <c r="G31" t="s">
-        <v>268</v>
+        <v>209</v>
       </c>
       <c r="Y31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G32" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>554</v>
+        <v>278</v>
       </c>
       <c r="Y33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>554</v>
       </c>
       <c r="Y34" t="s">
-        <v>112</v>
+        <v>588</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="Y35" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="Y36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G37" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="Y37" t="s">
-        <v>331</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" t="s">
         <v>301</v>
       </c>
-      <c r="Y38" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="G39" t="s">
-        <v>260</v>
-      </c>
       <c r="Y39" t="s">
-        <v>386</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="Y40" t="s">
-        <v>114</v>
+        <v>468</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>205</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s">
-        <v>115</v>
+        <v>589</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>282</v>
+        <v>205</v>
       </c>
       <c r="Y42" t="s">
-        <v>116</v>
+        <v>386</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>293</v>
+        <v>579</v>
       </c>
       <c r="Y43" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="Y44" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="Y45" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>335</v>
+        <v>294</v>
       </c>
       <c r="Y46" t="s">
-        <v>488</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>204</v>
+        <v>336</v>
       </c>
       <c r="Y47" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="Y48" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>332</v>
+        <v>204</v>
       </c>
       <c r="Y49" t="s">
-        <v>120</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>361</v>
+        <v>313</v>
       </c>
       <c r="Y50" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="Y51" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="Y52" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="Y53" t="s">
-        <v>515</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>261</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="Y55" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="Y56" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="Y57" t="s">
-        <v>124</v>
+        <v>515</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="Y58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>305</v>
+        <v>580</v>
       </c>
       <c r="Y59" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="Y60" t="s">
-        <v>127</v>
+        <v>510</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Y61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Y62" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>363</v>
+        <v>302</v>
       </c>
       <c r="Y64" t="s">
-        <v>487</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>338</v>
+        <v>303</v>
       </c>
       <c r="Y65" t="s">
-        <v>532</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>306</v>
+        <v>362</v>
       </c>
       <c r="Y66" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>262</v>
+        <v>363</v>
       </c>
       <c r="Y67" t="s">
-        <v>382</v>
+        <v>130</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Y68" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Y69" t="s">
-        <v>131</v>
+        <v>532</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="Y70" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>297</v>
+        <v>581</v>
       </c>
       <c r="Y71" t="s">
-        <v>133</v>
+        <v>382</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>404</v>
+        <v>307</v>
       </c>
       <c r="Y72" t="s">
-        <v>134</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
       <c r="Y73" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>555</v>
+        <v>297</v>
       </c>
       <c r="Y74" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="Y75" t="s">
-        <v>505</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
       <c r="Y76" t="s">
-        <v>520</v>
+        <v>134</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>279</v>
+        <v>555</v>
       </c>
       <c r="Y77" t="s">
-        <v>135</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>284</v>
+        <v>337</v>
       </c>
       <c r="Y78" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>422</v>
+        <v>273</v>
       </c>
       <c r="Y79" t="s">
-        <v>137</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>325</v>
+        <v>279</v>
       </c>
       <c r="Y80" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="Y81" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>274</v>
+        <v>422</v>
       </c>
       <c r="Y82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>280</v>
+        <v>325</v>
       </c>
       <c r="Y83" t="s">
-        <v>192</v>
+        <v>137</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y84" t="s">
-        <v>533</v>
+        <v>546</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="Y85" t="s">
-        <v>193</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="Y86" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Y87" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>266</v>
+        <v>582</v>
       </c>
       <c r="Y88" t="s">
-        <v>195</v>
+        <v>533</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Y89" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="Y90" t="s">
-        <v>140</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="Y91" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>333</v>
+        <v>266</v>
       </c>
       <c r="Y92" t="s">
-        <v>484</v>
+        <v>195</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="Y93" t="s">
-        <v>486</v>
+        <v>591</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>271</v>
       </c>
-      <c r="Y94" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Y96" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Y97" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>216</v>
+        <v>484</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>201</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>559</v>
+        <v>197</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>560</v>
+        <v>198</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>142</v>
+        <v>199</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>561</v>
+        <v>200</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>143</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>144</v>
+        <v>559</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>145</v>
+        <v>560</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>147</v>
+        <v>561</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>148</v>
+        <v>376</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>489</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>46</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>160</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>162</v>
+        <v>593</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,40 +18,41 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19817" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20942" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1872,13 +1873,46 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="628" x14ac:knownFonts="1">
+  <fonts count="660" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5834,8 +5868,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1105">
+  <fills count="1159">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12093,8 +12329,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1127">
+  <borders count="1191">
     <border>
       <left/>
       <right/>
@@ -22952,6 +23494,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -23463,7 +24657,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="654">
+  <cellXfs count="686">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25395,52 +26589,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1077" fontId="611" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="612" fillId="1080" borderId="1102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="613" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1080" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="613" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="614" fillId="1083" borderId="1106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1083" fontId="614" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="615" fillId="1086" borderId="1110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1086" fontId="615" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="616" fillId="1089" borderId="1114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1089" fontId="616" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="617" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="617" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="618" fillId="1092" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1092" fontId="618" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="619" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="620" fillId="1095" borderId="1118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="621" fillId="1086" borderId="1122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="622" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="623" fillId="1098" borderId="1126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="624" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="625" fillId="1101" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="626" fillId="1089" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="627" fillId="1104" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1095" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1086" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1098" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1126" fillId="1098" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1101" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1089" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1104" fontId="627" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1107" fontId="628" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="629" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1110" fontId="630" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1113" fontId="631" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1116" fontId="632" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="633" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1119" fontId="634" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="635" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1122" fontId="636" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1154" fillId="1113" fontId="637" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1125" fontId="638" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1125" fontId="639" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="640" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1128" fontId="641" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1116" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25765,7 +27055,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25790,81 +27080,84 @@
         <v>536</v>
       </c>
       <c r="E1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>340</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>326</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>562</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>522</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>232</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>51</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>389</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>405</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>406</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>350</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>390</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>407</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>220</v>
       </c>
     </row>
@@ -25882,81 +27175,84 @@
         <v>537</v>
       </c>
       <c r="E2" t="s">
+        <v>601</v>
+      </c>
+      <c r="F2" t="s">
         <v>56</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>70</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>72</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>499</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>517</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>308</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>377</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>459</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>563</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>527</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>410</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>423</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>246</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>210</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>391</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>412</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>413</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>374</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>400</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>89</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>164</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>169</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>176</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>425</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>541</v>
       </c>
     </row>
@@ -25973,76 +27269,76 @@
       <c r="D3" t="s">
         <v>573</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>508</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>358</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>86</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>523</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>334</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>327</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>84</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>564</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>528</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>424</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>233</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>211</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>392</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>414</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>375</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>401</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>165</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>170</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>357</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>177</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>221</v>
       </c>
     </row>
@@ -26056,82 +27352,82 @@
       <c r="D4" t="s">
         <v>538</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>71</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>380</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>500</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>524</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>343</v>
       </c>
-      <c r="K4" t="s">
-        <v>231</v>
-      </c>
       <c r="L4" t="s">
+        <v>609</v>
+      </c>
+      <c r="M4" t="s">
         <v>328</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>565</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>529</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>234</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>212</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>393</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>415</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>351</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>402</v>
       </c>
-      <c r="Y4" t="s">
-        <v>347</v>
-      </c>
       <c r="Z4" t="s">
+        <v>610</v>
+      </c>
+      <c r="AA4" t="s">
         <v>166</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>171</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>177</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>417</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>600</v>
       </c>
       <c r="B5" t="s">
         <v>368</v>
@@ -26139,73 +27435,73 @@
       <c r="D5" t="s">
         <v>539</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>509</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>490</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>578</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>506</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>583</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>344</v>
       </c>
-      <c r="K5" t="s">
-        <v>514</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="L5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>575</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>235</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>213</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>394</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>416</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>352</v>
       </c>
-      <c r="Y5" t="s">
-        <v>348</v>
-      </c>
       <c r="Z5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA5" t="s">
         <v>167</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>172</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>178</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>418</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>369</v>
@@ -26213,1505 +27509,1519 @@
       <c r="D6" t="s">
         <v>540</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>553</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>329</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>501</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>341</v>
       </c>
-      <c r="K6" t="s">
-        <v>70</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="L6" t="s">
+        <v>514</v>
+      </c>
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>569</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>236</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>384</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>395</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>354</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>494</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>173</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>179</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>419</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>370</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>217</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>381</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>497</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>584</v>
       </c>
-      <c r="K7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="L7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
         <v>308</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>570</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>237</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>411</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>396</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>353</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>92</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>495</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>174</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>180</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>420</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>371</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>311</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>359</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>321</v>
       </c>
-      <c r="K8" t="s">
-        <v>556</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="L8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>571</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>460</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>238</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>397</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>355</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>93</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>168</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>175</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>181</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>421</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>372</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>360</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>322</v>
       </c>
-      <c r="K9" t="s">
-        <v>78</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="L9" t="s">
+        <v>556</v>
+      </c>
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>576</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>461</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>239</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>398</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>356</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>202</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>182</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>308</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>299</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>502</v>
       </c>
-      <c r="K10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>566</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>462</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>240</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>399</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>250</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>183</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F11" t="s">
+        <v>602</v>
+      </c>
+      <c r="H11" t="s">
         <v>345</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>315</v>
       </c>
-      <c r="K11" t="s">
-        <v>557</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="L11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N11" t="s">
         <v>525</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>567</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>463</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>241</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>251</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>252</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>312</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>267</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>316</v>
       </c>
-      <c r="K12" t="s">
-        <v>383</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="L12" t="s">
+        <v>557</v>
+      </c>
+      <c r="N12" t="s">
         <v>585</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>568</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>464</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>242</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>94</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>184</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" t="s">
         <v>334</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>256</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>317</v>
       </c>
-      <c r="K13" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="L13" t="s">
+        <v>383</v>
+      </c>
+      <c r="N13" t="s">
         <v>492</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>465</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>247</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>319</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>185</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>562</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>309</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>318</v>
       </c>
-      <c r="K14" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" t="s">
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
         <v>526</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>466</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>243</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>95</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>186</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" t="s">
+        <v>562</v>
+      </c>
+      <c r="F15" t="s">
         <v>57</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>257</v>
       </c>
-      <c r="K15" t="s">
-        <v>558</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>550</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>244</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>96</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>187</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" t="s">
+        <v>522</v>
+      </c>
+      <c r="F16" t="s">
         <v>378</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>258</v>
       </c>
-      <c r="K16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
+        <v>558</v>
+      </c>
+      <c r="N16" t="s">
         <v>586</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>551</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>245</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>73</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>188</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" t="s">
         <v>379</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>310</v>
       </c>
-      <c r="K17" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="L17" t="s">
+        <v>79</v>
+      </c>
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>552</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>516</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
-      </c>
-      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
         <v>408</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>87</v>
       </c>
-      <c r="K18" t="s">
-        <v>507</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="L18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>97</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
+        <v>608</v>
+      </c>
+      <c r="H19" t="s">
         <v>88</v>
       </c>
-      <c r="K19" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y19" t="s">
+      <c r="L19" t="s">
+        <v>507</v>
+      </c>
+      <c r="Z19" t="s">
         <v>98</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>389</v>
-      </c>
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
         <v>289</v>
       </c>
-      <c r="K20" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y20" t="s">
+      <c r="L20" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z20" t="s">
         <v>99</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>405</v>
-      </c>
-      <c r="E21" t="s">
-        <v>249</v>
-      </c>
-      <c r="G21" t="s">
+        <v>389</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" t="s">
         <v>290</v>
       </c>
-      <c r="K21" t="s">
-        <v>373</v>
-      </c>
-      <c r="Y21" t="s">
+      <c r="L21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z21" t="s">
         <v>100</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>406</v>
-      </c>
-      <c r="E22" t="s">
-        <v>577</v>
-      </c>
-      <c r="G22" t="s">
+        <v>405</v>
+      </c>
+      <c r="F22" t="s">
+        <v>249</v>
+      </c>
+      <c r="H22" t="s">
         <v>291</v>
       </c>
-      <c r="K22" t="s">
-        <v>521</v>
-      </c>
-      <c r="Y22" t="s">
+      <c r="L22" t="s">
+        <v>604</v>
+      </c>
+      <c r="Z22" t="s">
         <v>530</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" t="s">
+        <v>406</v>
+      </c>
+      <c r="F23" t="s">
+        <v>577</v>
+      </c>
+      <c r="H23" t="s">
         <v>292</v>
       </c>
-      <c r="K23" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y23" t="s">
+      <c r="L23" t="s">
+        <v>521</v>
+      </c>
+      <c r="Z23" t="s">
         <v>102</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>390</v>
-      </c>
-      <c r="E24" t="s">
-        <v>314</v>
-      </c>
-      <c r="G24" t="s">
+        <v>350</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" t="s">
         <v>283</v>
       </c>
-      <c r="K24" t="s">
-        <v>385</v>
-      </c>
-      <c r="Y24" t="s">
+      <c r="L24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s">
         <v>587</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="E25" t="s">
-        <v>61</v>
-      </c>
-      <c r="G25" t="s">
+        <v>390</v>
+      </c>
+      <c r="F25" t="s">
+        <v>314</v>
+      </c>
+      <c r="H25" t="s">
         <v>272</v>
       </c>
-      <c r="K25" t="s">
-        <v>574</v>
-      </c>
-      <c r="Y25" t="s">
+      <c r="L25" t="s">
+        <v>385</v>
+      </c>
+      <c r="Z25" t="s">
         <v>103</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
         <v>74</v>
       </c>
-      <c r="K26" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y26" t="s">
+      <c r="L26" t="s">
+        <v>574</v>
+      </c>
+      <c r="Z26" t="s">
         <v>104</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E27" t="s">
-        <v>218</v>
-      </c>
-      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>498</v>
+      </c>
+      <c r="H27" t="s">
         <v>275</v>
       </c>
-      <c r="K27" t="s">
-        <v>491</v>
-      </c>
-      <c r="Y27" t="s">
+      <c r="L27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z27" t="s">
         <v>105</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" t="s">
-        <v>219</v>
-      </c>
-      <c r="G28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" t="s">
         <v>259</v>
       </c>
-      <c r="K28" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y28" t="s">
+      <c r="L28" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z28" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>407</v>
-      </c>
-      <c r="E29" t="s">
-        <v>518</v>
-      </c>
-      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" t="s">
         <v>276</v>
       </c>
-      <c r="K29" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y29" t="s">
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z29" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F30" t="s">
+        <v>518</v>
+      </c>
+      <c r="H30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>220</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F31" t="s">
         <v>519</v>
       </c>
-      <c r="G30" t="s">
-        <v>277</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="H31" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="F32" t="s">
         <v>409</v>
       </c>
-      <c r="G31" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="E32" t="s">
+      <c r="H32" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="F33" t="s">
         <v>62</v>
       </c>
-      <c r="G32" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="E33" t="s">
+      <c r="H33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="F34" t="s">
         <v>63</v>
       </c>
-      <c r="G33" t="s">
-        <v>278</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="E34" t="s">
+      <c r="H34" t="s">
+        <v>554</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>64</v>
       </c>
-      <c r="G34" t="s">
-        <v>554</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="E35" t="s">
+      <c r="H35" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>65</v>
       </c>
-      <c r="G35" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="E36" t="s">
+      <c r="H36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>66</v>
       </c>
-      <c r="G36" t="s">
-        <v>323</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="E37" t="s">
+      <c r="H37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>67</v>
       </c>
-      <c r="G37" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="E38" t="s">
+      <c r="H38" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>68</v>
       </c>
-      <c r="G38" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="E39" t="s">
+      <c r="H39" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>69</v>
       </c>
-      <c r="G39" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>260</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>76</v>
       </c>
-      <c r="Y41" t="s">
-        <v>589</v>
+      <c r="Z41" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>205</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>579</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>282</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>293</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>294</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>336</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>335</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>204</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>313</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>332</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>361</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>295</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>349</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>324</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>261</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>285</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>286</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>580</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>287</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>296</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>305</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>330</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>302</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>303</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>362</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>363</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>338</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>306</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>262</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>581</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>307</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>403</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>297</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>404</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>255</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>555</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>337</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>273</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>279</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>284</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>422</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>325</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>263</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>274</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>280</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>269</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>582</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>264</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>281</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>265</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>266</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>298</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>304</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>288</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>333</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>270</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>271</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -42,7 +42,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20942" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22072" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1906,13 +1906,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="660" x14ac:knownFonts="1">
+  <fonts count="692" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6070,8 +6079,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1159">
+  <fills count="1213">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12635,8 +12846,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1191">
+  <borders count="1255">
     <border>
       <left/>
       <right/>
@@ -23494,6 +24011,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -24657,7 +25826,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="718">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26685,52 +27854,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1131" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="1134" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="645" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1134" fontId="644" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="645" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1137" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1137" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1140" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1140" fontId="647" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="1143" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1143" fontId="648" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="649" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="1146" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1146" fontId="650" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="652" fillId="1149" borderId="1182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="653" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="654" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="655" fillId="1152" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="656" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="657" fillId="1155" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="658" fillId="1143" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="659" fillId="1158" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="651" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1182" fillId="1149" fontId="652" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="653" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1152" fontId="654" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1152" fontId="655" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="656" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1155" fontId="657" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1143" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1158" fontId="659" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1161" fontId="660" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="661" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1164" fontId="662" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1167" fontId="663" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1210" fillId="1170" fontId="664" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="665" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1173" fontId="666" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="667" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1176" fontId="668" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1167" fontId="669" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1179" fontId="670" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1179" fontId="671" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="672" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1182" fontId="673" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1170" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27055,7 +28320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27521,6 +28786,9 @@
       <c r="I6" t="s">
         <v>501</v>
       </c>
+      <c r="J6" t="s">
+        <v>611</v>
+      </c>
       <c r="K6" t="s">
         <v>341</v>
       </c>
@@ -28037,7 +29305,7 @@
         <v>232</v>
       </c>
       <c r="F19" t="s">
-        <v>608</v>
+        <v>58</v>
       </c>
       <c r="H19" t="s">
         <v>88</v>
@@ -28057,7 +29325,7 @@
         <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>289</v>
@@ -28077,7 +29345,7 @@
         <v>389</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="H21" t="s">
         <v>290</v>
@@ -28097,7 +29365,7 @@
         <v>405</v>
       </c>
       <c r="F22" t="s">
-        <v>249</v>
+        <v>577</v>
       </c>
       <c r="H22" t="s">
         <v>291</v>
@@ -28117,7 +29385,7 @@
         <v>406</v>
       </c>
       <c r="F23" t="s">
-        <v>577</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>292</v>
@@ -28137,7 +29405,7 @@
         <v>350</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>314</v>
       </c>
       <c r="H24" t="s">
         <v>283</v>
@@ -28157,7 +29425,7 @@
         <v>390</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>61</v>
       </c>
       <c r="H25" t="s">
         <v>272</v>
@@ -28177,7 +29445,7 @@
         <v>52</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>498</v>
       </c>
       <c r="H26" t="s">
         <v>74</v>
@@ -28197,7 +29465,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>498</v>
+        <v>218</v>
       </c>
       <c r="H27" t="s">
         <v>275</v>
@@ -28217,7 +29485,7 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>259</v>
@@ -28234,7 +29502,7 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>518</v>
       </c>
       <c r="H29" t="s">
         <v>276</v>
@@ -28251,7 +29519,7 @@
         <v>407</v>
       </c>
       <c r="F30" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H30" t="s">
         <v>277</v>
@@ -28268,7 +29536,7 @@
         <v>220</v>
       </c>
       <c r="F31" t="s">
-        <v>519</v>
+        <v>409</v>
       </c>
       <c r="H31" t="s">
         <v>209</v>
@@ -28279,7 +29547,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
         <v>268</v>
@@ -28290,7 +29558,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>278</v>
@@ -28301,7 +29569,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>554</v>
@@ -28312,7 +29580,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>253</v>
@@ -28323,7 +29591,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>323</v>
@@ -28334,7 +29602,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>300</v>
@@ -28345,7 +29613,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>254</v>
@@ -28356,7 +29624,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>301</v>
@@ -28366,9 +29634,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>69</v>
-      </c>
       <c r="H40" t="s">
         <v>260</v>
       </c>
@@ -28842,186 +30107,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>486</v>
+        <v>612</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>197</v>
+        <v>613</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>198</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>559</v>
+        <v>216</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>607</v>
+        <v>201</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>142</v>
+        <v>607</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>143</v>
+        <v>561</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>144</v>
+        <v>376</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>489</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>593</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>158</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>161</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>163</v>
       </c>
     </row>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22072" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22637" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1921,7 +1921,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="692" x14ac:knownFonts="1">
+  <fonts count="708" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6281,8 +6281,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1213">
+  <fills count="1240">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13152,8 +13253,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1255">
+  <borders count="1287">
     <border>
       <left/>
       <right/>
@@ -24011,6 +24265,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -25826,7 +26406,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="734">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27950,52 +28530,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1185" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="1188" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="677" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1188" fontId="676" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="677" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1191" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1191" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1194" borderId="1238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1238" fillId="1194" fontId="679" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1197" fontId="680" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="681" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="1200" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1200" fontId="682" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="684" fillId="1203" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="685" fillId="1194" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="686" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="687" fillId="1206" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="688" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="689" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="690" fillId="1197" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="691" fillId="1212" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="683" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1203" fontId="684" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1194" fontId="685" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1206" fontId="686" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1206" fontId="687" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="688" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="689" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1197" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="691" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1218" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1236" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="707" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/artifact/script/web-01.xlsx
+++ b/artifact/script/web-01.xlsx
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22637" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23767" uniqueCount="614">
   <si>
     <t>description</t>
   </si>
@@ -1921,7 +1921,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="708" x14ac:knownFonts="1">
+  <fonts count="740" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6382,8 +6382,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1240">
+  <fills count="1294">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13406,8 +13608,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1287">
+  <borders count="1351">
     <border>
       <left/>
       <right/>
@@ -24265,6 +24773,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -26406,7 +27566,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="734">
+  <cellXfs count="766">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28578,52 +29738,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1212" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="1215" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="693" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1215" fontId="692" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="693" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1218" borderId="1266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1266" fillId="1218" fontId="694" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1221" borderId="1270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1221" fontId="695" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="1224" borderId="1274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1224" fontId="696" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="697" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="1227" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1227" fontId="698" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="700" fillId="1230" borderId="1278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="701" fillId="1221" borderId="1282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="702" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="703" fillId="1233" borderId="1286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="704" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="705" fillId="1236" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="707" fillId="1239" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="699" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1230" fontId="700" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1221" fontId="701" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1233" fontId="702" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1233" fontId="703" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="704" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="705" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1294" fillId="1242" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="709" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1245" fontId="710" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1248" fontId="711" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1251" fontId="712" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="713" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="714" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1257" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1248" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1260" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1260" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1263" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="723" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="1269" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1272" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1275" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="1278" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1284" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1275" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1287" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1287" borderId="1350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1290" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1278" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1293" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
